--- a/WDAY.xlsx
+++ b/WDAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E30D74-F0B2-4366-AE85-EB3C237460AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF024756-6B25-4853-A1C8-289CE2BCF9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
+    <workbookView xWindow="21915" yWindow="1350" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>Price</t>
   </si>
@@ -210,14 +210,50 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>F2021</t>
+  </si>
+  <si>
+    <t>F2022</t>
+  </si>
+  <si>
+    <t>F2023</t>
+  </si>
+  <si>
+    <t>F2024</t>
+  </si>
+  <si>
+    <t>F2025</t>
+  </si>
+  <si>
+    <t>F2026</t>
+  </si>
+  <si>
+    <t>F2027</t>
+  </si>
+  <si>
+    <t>F2028</t>
+  </si>
+  <si>
+    <t>F2029</t>
+  </si>
+  <si>
+    <t>F2030</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>DR y/y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -262,16 +298,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -295,7 +328,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A316FEBC-FB4E-44C1-A7CB-2B0F0D427D15}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -311,15 +346,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16668</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16668</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -335,8 +370,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="0"/>
-          <a:ext cx="0" cy="8039100"/>
+          <a:off x="8851106" y="0"/>
+          <a:ext cx="0" cy="7980759"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -661,9 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D7CDB3-68AB-4CD4-9FC3-F425B5C54209}">
   <dimension ref="O2:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -672,14 +705,14 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>168.18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>252</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -690,16 +723,16 @@
       <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f>+P2*P3</f>
-        <v>42381.36</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="5" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>6255</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -710,7 +743,7 @@
       <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>4121</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -721,9 +754,9 @@
       <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <f>+P4-P5+P6</f>
-        <v>40247.360000000001</v>
+        <v>45746</v>
       </c>
     </row>
   </sheetData>
@@ -733,64 +766,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCB2AA-1F81-4F08-BB5B-5CC1179A46E9}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="2"/>
+    <col min="19" max="28" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44043</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44135</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>44227</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>44316</v>
       </c>
       <c r="H1" s="3">
         <v>44408</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>44500</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>44592</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>44681</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <f>+K1+92</f>
         <v>44773</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <f>+L1+92</f>
         <v>44865</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <f>+M1+92</f>
         <v>44957</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -827,1306 +863,2207 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="S2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="C3" s="5">
         <v>931.69799999999998</v>
       </c>
-      <c r="E3" s="6">
+      <c r="D3" s="5">
+        <v>931.69799999999998</v>
+      </c>
+      <c r="E3" s="5">
         <v>968.54700000000003</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1006.251</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>1032.1690000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>1113.454</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>1171.5170000000001</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>1229.173</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>1272.076</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="L3" s="5">
+        <v>1367.335</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1432.393</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1495.402</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(C3:F3)</f>
+        <v>3838.1940000000004</v>
+      </c>
+      <c r="T3" s="5">
+        <f>SUM(G3:J3)</f>
+        <v>4546.3130000000001</v>
+      </c>
+      <c r="U3" s="5">
+        <f>SUM(K3:N3)</f>
+        <v>5567.2060000000001</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="C4" s="5">
         <v>130.26900000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
+        <v>130.26900000000001</v>
+      </c>
+      <c r="E4" s="5">
         <v>137.41300000000001</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>125.43300000000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>142.864</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>146.90700000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>155.74600000000001</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>146.96799999999999</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>162.58099999999999</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
+      <c r="L4" s="5">
+        <v>168.46299999999999</v>
+      </c>
+      <c r="M4" s="5">
+        <v>166.71</v>
+      </c>
+      <c r="N4" s="5">
+        <v>150.858</v>
+      </c>
+      <c r="S4" s="5">
+        <f>SUM(C4:F4)</f>
+        <v>523.38400000000001</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4" si="0">SUM(G4:J4)</f>
+        <v>592.48500000000001</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4" si="1">SUM(K4:N4)</f>
+        <v>648.61200000000008</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8">
-        <f>+D3+D4</f>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:K5" si="2">+C3+C4</f>
         <v>1061.9670000000001</v>
       </c>
-      <c r="E5" s="8">
-        <f>+E3+E4</f>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
+        <v>1061.9670000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
         <v>1105.96</v>
       </c>
-      <c r="F5" s="8">
-        <f>+F3+F4</f>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
         <v>1131.684</v>
       </c>
-      <c r="G5" s="8">
-        <f>+G3+G4</f>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
         <v>1175.0330000000001</v>
       </c>
-      <c r="H5" s="8">
-        <f>+H3+H4</f>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
         <v>1260.3609999999999</v>
       </c>
-      <c r="I5" s="8">
-        <f>+I3+I4</f>
+      <c r="I5" s="7">
+        <f t="shared" si="2"/>
         <v>1327.2630000000001</v>
       </c>
-      <c r="J5" s="8">
-        <f>+J3+J4</f>
+      <c r="J5" s="7">
+        <f t="shared" si="2"/>
         <v>1376.1410000000001</v>
       </c>
-      <c r="K5" s="8">
-        <f>+K3+K4</f>
+      <c r="K5" s="7">
+        <f t="shared" si="2"/>
         <v>1434.6569999999999</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="L5" s="7">
+        <f>L3+L4</f>
+        <v>1535.798</v>
+      </c>
+      <c r="M5" s="7">
+        <f>M3+M4</f>
+        <v>1599.1030000000001</v>
+      </c>
+      <c r="N5" s="7">
+        <f>N3+N4</f>
+        <v>1646.26</v>
+      </c>
+      <c r="S5" s="7">
+        <f>S3+S4</f>
+        <v>4361.5780000000004</v>
+      </c>
+      <c r="T5" s="7">
+        <f>T3+T4</f>
+        <v>5138.7979999999998</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" ref="U5" si="3">U3+U4</f>
+        <v>6215.8180000000002</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
         <f>145.007+139.27</f>
         <v>284.27700000000004</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>152.396+142.785</f>
         <v>295.18099999999998</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>169.246+143.798</f>
         <v>313.04399999999998</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>182.208+150.845</f>
         <v>333.053</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>192.738+152.783</f>
         <v>345.52099999999996</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f>200.7+159.024</f>
         <v>359.72399999999999</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>220.208+169.589</f>
         <v>389.79700000000003</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f>232.922+169.899</f>
         <v>402.82100000000003</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
+      <c r="L6" s="5">
+        <f>244.982+178.103</f>
+        <v>423.08500000000004</v>
+      </c>
+      <c r="M6" s="5">
+        <f>259.397+176.396</f>
+        <v>435.79300000000001</v>
+      </c>
+      <c r="N6" s="5">
+        <f>274.146+179.333</f>
+        <v>453.47900000000004</v>
+      </c>
+      <c r="S6" s="5">
+        <f>SUM(C6:F6)</f>
+        <v>892.50200000000007</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" ref="T6" si="4">SUM(G6:J6)</f>
+        <v>1428.095</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" ref="U6" si="5">SUM(K6:N6)</f>
+        <v>1715.1780000000001</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <f>+D5-D6</f>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:K7" si="6">+D5-D6</f>
         <v>777.69</v>
       </c>
-      <c r="E7" s="6">
-        <f>+E5-E6</f>
+      <c r="E7" s="5">
+        <f t="shared" si="6"/>
         <v>810.779</v>
       </c>
-      <c r="F7" s="6">
-        <f>+F5-F6</f>
+      <c r="F7" s="5">
+        <f t="shared" si="6"/>
         <v>818.64</v>
       </c>
-      <c r="G7" s="6">
-        <f>+G5-G6</f>
+      <c r="G7" s="5">
+        <f t="shared" si="6"/>
         <v>841.98000000000013</v>
       </c>
-      <c r="H7" s="6">
-        <f>+H5-H6</f>
+      <c r="H7" s="5">
+        <f t="shared" si="6"/>
         <v>914.83999999999992</v>
       </c>
-      <c r="I7" s="6">
-        <f>+I5-I6</f>
+      <c r="I7" s="5">
+        <f t="shared" si="6"/>
         <v>967.53900000000021</v>
       </c>
-      <c r="J7" s="6">
-        <f>+J5-J6</f>
+      <c r="J7" s="5">
+        <f t="shared" si="6"/>
         <v>986.34400000000005</v>
       </c>
-      <c r="K7" s="6">
-        <f>+K5-K6</f>
+      <c r="K7" s="5">
+        <f t="shared" si="6"/>
         <v>1031.8359999999998</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+      <c r="L7" s="5">
+        <f>L5-L6</f>
+        <v>1112.713</v>
+      </c>
+      <c r="M7" s="5">
+        <f>M5-M6</f>
+        <v>1163.31</v>
+      </c>
+      <c r="N7" s="5">
+        <f>N5-N6</f>
+        <v>1192.7809999999999</v>
+      </c>
+      <c r="S7" s="5">
+        <f>S5-S6</f>
+        <v>3469.0760000000005</v>
+      </c>
+      <c r="T7" s="5">
+        <f>T5-T6</f>
+        <v>3710.7029999999995</v>
+      </c>
+      <c r="U7" s="5">
+        <f>U5-U6</f>
+        <v>4500.6400000000003</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
         <v>418.68099999999998</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>419.96199999999999</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>439.09500000000003</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>441.61599999999999</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>444.25099999999998</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>455.61500000000001</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>537.73800000000006</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>541.50900000000001</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
+      <c r="L8" s="5">
+        <v>547.83500000000004</v>
+      </c>
+      <c r="M8" s="5">
+        <v>565.72699999999998</v>
+      </c>
+      <c r="N8" s="5">
+        <v>615.58900000000006</v>
+      </c>
+      <c r="S8" s="5">
+        <f>SUM(C8:F8)</f>
+        <v>1277.7380000000001</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" ref="T8:T10" si="7">SUM(G8:J8)</f>
+        <v>1879.22</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" ref="U8:U10" si="8">SUM(K8:N8)</f>
+        <v>2270.66</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>276.49700000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>302.87</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>335.24900000000002</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>326.49400000000003</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>358.15699999999998</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>366.32299999999998</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>410.947</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>429.30099999999999</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="L9" s="5">
+        <v>458.70100000000002</v>
+      </c>
+      <c r="M9" s="5">
+        <v>470.19600000000003</v>
+      </c>
+      <c r="N9" s="5">
+        <v>489.89499999999998</v>
+      </c>
+      <c r="S9" s="5">
+        <f>SUM(C9:F9)</f>
+        <v>914.61599999999999</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="7"/>
+        <v>1461.9210000000003</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="8"/>
+        <v>1848.0929999999998</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
         <v>99.266000000000005</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>102.024</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>117.607</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>112.18300000000001</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>113.55200000000001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>121.65600000000001</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>138.62100000000001</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>133.869</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="L10" s="5">
+        <v>140.255</v>
+      </c>
+      <c r="M10" s="5">
+        <v>153.708</v>
+      </c>
+      <c r="N10" s="5">
+        <v>176.255</v>
+      </c>
+      <c r="S10" s="5">
+        <f>SUM(C10:F10)</f>
+        <v>318.89700000000005</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="7"/>
+        <v>486.01200000000006</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="8"/>
+        <v>604.08699999999999</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <f>SUM(D8:D10)</f>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <f t="shared" ref="D11:K11" si="9">SUM(D8:D10)</f>
         <v>794.44399999999996</v>
       </c>
-      <c r="E11" s="6">
-        <f>SUM(E8:E10)</f>
+      <c r="E11" s="5">
+        <f t="shared" si="9"/>
         <v>824.85599999999999</v>
       </c>
-      <c r="F11" s="6">
-        <f>SUM(F8:F10)</f>
+      <c r="F11" s="5">
+        <f t="shared" si="9"/>
         <v>891.95100000000002</v>
       </c>
-      <c r="G11" s="6">
-        <f>SUM(G8:G10)</f>
+      <c r="G11" s="5">
+        <f t="shared" si="9"/>
         <v>880.29300000000001</v>
       </c>
-      <c r="H11" s="6">
-        <f>SUM(H8:H10)</f>
+      <c r="H11" s="5">
+        <f t="shared" si="9"/>
         <v>915.95999999999992</v>
       </c>
-      <c r="I11" s="6">
-        <f>SUM(I8:I10)</f>
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
         <v>943.59400000000005</v>
       </c>
-      <c r="J11" s="6">
-        <f>SUM(J8:J10)</f>
+      <c r="J11" s="5">
+        <f t="shared" si="9"/>
         <v>1087.306</v>
       </c>
-      <c r="K11" s="6">
-        <f>SUM(K8:K10)</f>
+      <c r="K11" s="5">
+        <f t="shared" si="9"/>
         <v>1104.6789999999999</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+      <c r="L11" s="5">
+        <f t="shared" ref="L11:N11" si="10">SUM(L8:L10)</f>
+        <v>1146.7910000000002</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="10"/>
+        <v>1189.6310000000001</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="10"/>
+        <v>1281.739</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" ref="S11:U11" si="11">SUM(S8:S10)</f>
+        <v>2511.2510000000002</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="11"/>
+        <v>3827.1530000000007</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="11"/>
+        <v>4722.84</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6">
-        <f>D7-D11</f>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12:K12" si="12">D7-D11</f>
         <v>-16.753999999999905</v>
       </c>
-      <c r="E12" s="6">
-        <f>E7-E11</f>
+      <c r="E12" s="5">
+        <f t="shared" si="12"/>
         <v>-14.076999999999998</v>
       </c>
-      <c r="F12" s="6">
-        <f>F7-F11</f>
+      <c r="F12" s="5">
+        <f t="shared" si="12"/>
         <v>-73.311000000000035</v>
       </c>
-      <c r="G12" s="6">
-        <f>G7-G11</f>
+      <c r="G12" s="5">
+        <f t="shared" si="12"/>
         <v>-38.312999999999874</v>
       </c>
-      <c r="H12" s="6">
-        <f>H7-H11</f>
+      <c r="H12" s="5">
+        <f t="shared" si="12"/>
         <v>-1.1200000000000045</v>
       </c>
-      <c r="I12" s="6">
-        <f>I7-I11</f>
+      <c r="I12" s="5">
+        <f t="shared" si="12"/>
         <v>23.945000000000164</v>
       </c>
-      <c r="J12" s="6">
-        <f>J7-J11</f>
+      <c r="J12" s="5">
+        <f t="shared" si="12"/>
         <v>-100.96199999999999</v>
       </c>
-      <c r="K12" s="6">
-        <f>K7-K11</f>
+      <c r="K12" s="5">
+        <f t="shared" si="12"/>
         <v>-72.843000000000075</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="L12" s="5">
+        <f t="shared" ref="L12:N12" si="13">L7-L11</f>
+        <v>-34.078000000000202</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="13"/>
+        <v>-26.32100000000014</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="13"/>
+        <v>-88.958000000000084</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" ref="S12:U12" si="14">S7-S11</f>
+        <v>957.82500000000027</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="14"/>
+        <v>-116.45000000000118</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="14"/>
+        <v>-222.19999999999982</v>
+      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+    </row>
+    <row r="13" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
         <v>-11.452999999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>-8.8460000000000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>4.7370000000000001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>-9.0510000000000002</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>21.556999999999999</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>17.140999999999998</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>-20.163</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="L13" s="5">
+        <v>-32.789000000000001</v>
+      </c>
+      <c r="M13" s="5">
+        <v>4.1630000000000003</v>
+      </c>
+      <c r="N13" s="5">
+        <v>11.039</v>
+      </c>
+      <c r="S13" s="5">
+        <f>SUM(C13:F13)</f>
+        <v>-15.561999999999999</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" ref="T13" si="15">SUM(G13:J13)</f>
+        <v>29.646999999999998</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" ref="U13" si="16">SUM(K13:N13)</f>
+        <v>-37.75</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <f>+D12+D13</f>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:K14" si="17">+D12+D13</f>
         <v>-28.206999999999905</v>
       </c>
-      <c r="E14" s="6">
-        <f>+E12+E13</f>
+      <c r="E14" s="5">
+        <f t="shared" si="17"/>
         <v>-22.922999999999998</v>
       </c>
-      <c r="F14" s="6">
-        <f>+F12+F13</f>
+      <c r="F14" s="5">
+        <f t="shared" si="17"/>
         <v>-68.574000000000041</v>
       </c>
-      <c r="G14" s="6">
-        <f>+G12+G13</f>
+      <c r="G14" s="5">
+        <f t="shared" si="17"/>
         <v>-47.363999999999876</v>
       </c>
-      <c r="H14" s="6">
-        <f>+H12+H13</f>
+      <c r="H14" s="5">
+        <f t="shared" si="17"/>
         <v>-1.1200000000000045</v>
       </c>
-      <c r="I14" s="6">
-        <f>+I12+I13</f>
+      <c r="I14" s="5">
+        <f t="shared" si="17"/>
         <v>45.502000000000166</v>
       </c>
-      <c r="J14" s="6">
-        <f>+J12+J13</f>
+      <c r="J14" s="5">
+        <f t="shared" si="17"/>
         <v>-83.820999999999998</v>
       </c>
-      <c r="K14" s="6">
-        <f>+K12+K13</f>
+      <c r="K14" s="5">
+        <f t="shared" si="17"/>
         <v>-93.006000000000071</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="L14" s="5">
+        <f>L12+L13</f>
+        <v>-66.867000000000203</v>
+      </c>
+      <c r="M14" s="5">
+        <f>M12+M13</f>
+        <v>-22.15800000000014</v>
+      </c>
+      <c r="N14" s="5">
+        <f>N12+N13</f>
+        <v>-77.919000000000082</v>
+      </c>
+      <c r="S14" s="5">
+        <f>S12+S13</f>
+        <v>942.26300000000026</v>
+      </c>
+      <c r="T14" s="5">
+        <f>T12+T13</f>
+        <v>-86.803000000001191</v>
+      </c>
+      <c r="U14" s="5">
+        <f>U12+U13</f>
+        <v>-259.94999999999982</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>-0.191</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>1.417</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>3.133</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>-0.84199999999999997</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>-3.871</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>2.09</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>10.568</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>9.1669999999999998</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>52.563000000000002</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <f>SUM(C15:F15)</f>
+        <v>4.359</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" ref="T15" si="18">SUM(G15:J15)</f>
+        <v>7.9449999999999994</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" ref="U15" si="19">SUM(K15:N15)</f>
+        <v>61.730000000000004</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <f>+D14-D15</f>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:K16" si="20">+D14-D15</f>
         <v>-28.015999999999906</v>
       </c>
-      <c r="E16" s="6">
-        <f>+E14-E15</f>
+      <c r="E16" s="5">
+        <f t="shared" si="20"/>
         <v>-24.34</v>
       </c>
-      <c r="F16" s="6">
-        <f>+F14-F15</f>
+      <c r="F16" s="5">
+        <f t="shared" si="20"/>
         <v>-71.707000000000036</v>
       </c>
-      <c r="G16" s="6">
-        <f>+G14-G15</f>
+      <c r="G16" s="5">
+        <f t="shared" si="20"/>
         <v>-46.521999999999878</v>
       </c>
-      <c r="H16" s="6">
-        <f>+H14-H15</f>
+      <c r="H16" s="5">
+        <f t="shared" si="20"/>
         <v>2.7509999999999954</v>
       </c>
-      <c r="I16" s="6">
-        <f>+I14-I15</f>
+      <c r="I16" s="5">
+        <f t="shared" si="20"/>
         <v>43.412000000000162</v>
       </c>
-      <c r="J16" s="6">
-        <f>+J14-J15</f>
+      <c r="J16" s="5">
+        <f t="shared" si="20"/>
         <v>-94.388999999999996</v>
       </c>
-      <c r="K16" s="6">
-        <f>+K14-K15</f>
+      <c r="K16" s="5">
+        <f t="shared" si="20"/>
         <v>-102.17300000000007</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
+      <c r="L16" s="5">
+        <f t="shared" ref="L16:N16" si="21">+L14-L15</f>
+        <v>-66.867000000000203</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="21"/>
+        <v>-74.721000000000146</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="21"/>
+        <v>-77.919000000000082</v>
+      </c>
+      <c r="S16" s="5">
+        <f>S14-S15</f>
+        <v>937.90400000000022</v>
+      </c>
+      <c r="T16" s="5">
+        <f>T14-T15</f>
+        <v>-94.748000000001184</v>
+      </c>
+      <c r="U16" s="5">
+        <f>U14-U15</f>
+        <v>-321.67999999999984</v>
+      </c>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9">
-        <f>+D16/D18</f>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17:K17" si="22">+D16/D18</f>
         <v>-0.11871085838255567</v>
       </c>
-      <c r="E17" s="9">
-        <f>+E16/E18</f>
+      <c r="E17" s="8">
+        <f t="shared" si="22"/>
         <v>-0.10224356147005574</v>
       </c>
-      <c r="F17" s="9">
-        <f>+F16/F18</f>
+      <c r="F17" s="8">
+        <f t="shared" si="22"/>
         <v>-0.29754929624219906</v>
       </c>
-      <c r="G17" s="9">
-        <f>+G16/G18</f>
+      <c r="G17" s="8">
+        <f t="shared" si="22"/>
         <v>-0.19086810071428814</v>
       </c>
-      <c r="H17" s="9">
-        <f>+H16/H18</f>
+      <c r="H17" s="8">
+        <f t="shared" si="22"/>
         <v>1.0580118146575578E-2</v>
       </c>
-      <c r="I17" s="9">
-        <f>+I16/I18</f>
+      <c r="I17" s="8">
+        <f t="shared" si="22"/>
         <v>0.17040351703564202</v>
       </c>
-      <c r="J17" s="9">
-        <f>+J16/J18</f>
+      <c r="J17" s="8">
+        <f t="shared" si="22"/>
         <v>-0.37749107153569583</v>
       </c>
-      <c r="K17" s="9">
-        <f>+K16/K18</f>
+      <c r="K17" s="8">
+        <f t="shared" si="22"/>
         <v>-0.40586232785022852</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
+      <c r="L17" s="8">
+        <f t="shared" ref="L17:N17" si="23">+L16/L18</f>
+        <v>-0.2614514785750322</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="23"/>
+        <v>-0.29216079576779219</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="23"/>
+        <v>-0.30280737752698983</v>
+      </c>
+      <c r="S17" s="8">
+        <f>S16/S18</f>
+        <v>3.9349698553813504</v>
+      </c>
+      <c r="T17" s="8">
+        <f>T16/T18</f>
+        <v>-0.37577610806716594</v>
+      </c>
+      <c r="U17" s="8">
+        <f>U16/U18</f>
+        <v>-1.2607844040248051</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
         <v>236.00200000000001</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>238.059</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>240.99199999999999</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>243.739</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>260.01600000000002</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>254.76</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>250.04300000000001</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>251.74299999999999</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="L18" s="5">
+        <v>255.75299999999999</v>
+      </c>
+      <c r="M18" s="5">
+        <v>255.75299999999999</v>
+      </c>
+      <c r="N18" s="5">
+        <v>257.322</v>
+      </c>
+      <c r="S18" s="5">
+        <f>AVERAGE(C18:F18)</f>
+        <v>238.351</v>
+      </c>
+      <c r="T18" s="5">
+        <f>AVERAGE(G18:J18)</f>
+        <v>252.1395</v>
+      </c>
+      <c r="U18" s="5">
+        <f>AVERAGE(K18:N18)</f>
+        <v>255.14275000000001</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="10">
         <f>+H5/D5-1</f>
         <v>0.18681748114583585</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <f>+I5/E5-1</f>
         <v>0.20010036529350073</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <f>+J5/F5-1</f>
         <v>0.21601171351720105</v>
       </c>
-      <c r="K20" s="11">
-        <f t="shared" ref="K20" si="0">+K5/G5-1</f>
+      <c r="K20" s="10">
+        <f t="shared" ref="K20" si="24">+K5/G5-1</f>
         <v>0.22095039032946295</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="22" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+      <c r="L20" s="10">
+        <f t="shared" ref="L20" si="25">+L5/H5-1</f>
+        <v>0.21853818072758524</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" ref="M20" si="26">+M5/I5-1</f>
+        <v>0.20481245992693231</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" ref="N20" si="27">+N5/J5-1</f>
+        <v>0.19628729904857134</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="10">
+        <f>T5/S5-1</f>
+        <v>0.17819697366411869</v>
+      </c>
+      <c r="U20" s="10">
+        <f>U5/T5-1</f>
+        <v>0.2095859771098223</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="5">
+        <f>K23-K38</f>
+        <v>2134.1609999999991</v>
+      </c>
+      <c r="N22" s="5">
+        <f>N23-N38</f>
+        <v>3145.4599999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
         <f>2776.336+3479.019</f>
         <v>6255.3549999999996</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5">
+        <f>1886.311+4235.083</f>
+        <v>6121.3939999999993</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <v>778.07600000000002</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
+        <v>1570.086</v>
+      </c>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
         <f>156.806+339.712</f>
         <v>496.51800000000003</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
+        <f>191.054+420.988</f>
+        <v>612.04200000000003</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
         <v>252.989</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <v>225.69</v>
+      </c>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
         <v>1186.0039999999999</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <v>1201.2539999999999</v>
+      </c>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
         <v>252.23599999999999</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <f>249.278</f>
+        <v>249.27799999999999</v>
+      </c>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5">
         <f>369.387+2840.044</f>
         <v>3209.431</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <f>2840.044+305.465</f>
+        <v>3145.509</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5">
         <v>368.49700000000001</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <v>360.98500000000001</v>
+      </c>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6">
-        <f>SUM(K22:K29)</f>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
+        <f>SUM(K23:K30)</f>
         <v>12799.106</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="32" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5">
+        <f>SUM(N23:N30)</f>
+        <v>13486.238000000001</v>
+      </c>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="33" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
         <v>123.361</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <v>153.751</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
         <v>246.93899999999999</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
+        <v>260.13099999999997</v>
+      </c>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+    </row>
+    <row r="35" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
         <v>362.26900000000001</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <v>563.548</v>
+      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+    </row>
+    <row r="36" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
+        <f>3110.947+71.533</f>
+        <v>3182.48</v>
+      </c>
+      <c r="K36" s="5">
         <f>2820.119+59.308</f>
         <v>2879.4270000000001</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <f>3559.393+74.54</f>
+        <v>3633.933</v>
+      </c>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+    </row>
+    <row r="37" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
         <f>80.573+182.237</f>
         <v>262.81</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <f>91.343+181.799</f>
+        <v>273.142</v>
+      </c>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
         <f>1148.126+2973.068</f>
         <v>4121.1940000000004</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
+        <f>2975.934</f>
+        <v>2975.9340000000002</v>
+      </c>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+    </row>
+    <row r="39" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5">
         <v>22.298999999999999</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5">
+        <v>40.231000000000002</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+    </row>
+    <row r="40" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
         <v>4780.8069999999998</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5">
+        <v>5585.5680000000002</v>
+      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+    </row>
+    <row r="41" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6">
-        <f>SUM(K32:K39)</f>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
+        <f>SUM(K33:K40)</f>
         <v>12799.106</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="42" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <f>SUM(N33:N40)</f>
+        <v>13486.238000000001</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+    </row>
+    <row r="43" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
         <f>+G16</f>
         <v>-46.521999999999878</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
         <f>+K16</f>
         <v>-102.17300000000007</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
+      <c r="L43" s="5">
+        <f>+L16</f>
+        <v>-66.867000000000203</v>
+      </c>
+      <c r="M43" s="5">
+        <f>+M16</f>
+        <v>-74.721000000000146</v>
+      </c>
+      <c r="N43" s="5">
+        <f>+N16</f>
+        <v>-77.919000000000082</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+    </row>
+    <row r="44" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5">
         <v>-46.521999999999998</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
         <v>-102.173</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+    </row>
+    <row r="45" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
         <v>82.462999999999994</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5">
         <v>89.846000000000004</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="5" t="s">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+    </row>
+    <row r="46" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
         <v>264.63499999999999</v>
       </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5">
         <v>311.50599999999997</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+    </row>
+    <row r="47" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
         <v>31.614000000000001</v>
       </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5">
         <v>39.427</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+    </row>
+    <row r="48" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
         <v>22.23</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5">
         <v>22.047999999999998</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+    </row>
+    <row r="49" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
         <v>6.0179999999999998</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6">
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5">
         <v>8.08</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+    </row>
+    <row r="50" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
         <v>-1.6240000000000001</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5">
         <v>0.70899999999999996</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+    </row>
+    <row r="51" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5">
         <v>392.11900000000003</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5">
         <v>462.964</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+    </row>
+    <row r="52" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5">
         <v>-26.27</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5">
         <v>-41.728999999999999</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+    </row>
+    <row r="53" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
         <v>-35.566000000000003</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
         <v>-23.997</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+    </row>
+    <row r="54" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
         <v>-0.17</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
         <v>6.91</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+    </row>
+    <row r="55" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
         <v>-10.92</v>
       </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5">
         <v>-30.873000000000001</v>
       </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="5" t="s">
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+    </row>
+    <row r="56" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5">
         <v>-225.57900000000001</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
         <v>-303.00099999999998</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+    </row>
+    <row r="57" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6">
-        <f>SUM(G43:G55)</f>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5">
+        <f>SUM(G44:G56)</f>
         <v>452.42800000000005</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6">
-        <f>SUM(K43:K55)</f>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
+        <f>SUM(K44:K56)</f>
         <v>439.71699999999987</v>
       </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N60" s="10">
+        <f>N36/J36-1</f>
+        <v>0.14185572258113166</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/WDAY.xlsx
+++ b/WDAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF024756-6B25-4853-A1C8-289CE2BCF9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E3CFC-8873-4B39-AC61-5F089D7EE839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21915" yWindow="1350" windowWidth="38700" windowHeight="15345" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
+    <workbookView xWindow="-51090" yWindow="375" windowWidth="29955" windowHeight="20025" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Price</t>
   </si>
@@ -206,9 +206,6 @@
     <t>L+SE</t>
   </si>
   <si>
-    <t>Q122</t>
-  </si>
-  <si>
     <t>Revenue y/y</t>
   </si>
   <si>
@@ -246,6 +243,33 @@
   </si>
   <si>
     <t>DR y/y</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -346,14 +370,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16668</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23237</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>16668</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>23237</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -370,8 +394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851106" y="0"/>
-          <a:ext cx="0" cy="7980759"/>
+          <a:off x="12563392" y="0"/>
+          <a:ext cx="0" cy="8315982"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -398,9 +422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,7 +720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D7CDB3-68AB-4CD4-9FC3-F425B5C54209}">
   <dimension ref="O2:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -705,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>190</v>
+        <v>244.41</v>
       </c>
     </row>
     <row r="3" spans="15:17" x14ac:dyDescent="0.2">
@@ -713,10 +739,11 @@
         <v>1</v>
       </c>
       <c r="P3" s="4">
-        <v>252</v>
+        <f>213+52</f>
+        <v>265</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="15:17" x14ac:dyDescent="0.2">
@@ -725,7 +752,7 @@
       </c>
       <c r="P4" s="4">
         <f>+P2*P3</f>
-        <v>47880</v>
+        <v>64768.65</v>
       </c>
     </row>
     <row r="5" spans="15:17" x14ac:dyDescent="0.2">
@@ -733,10 +760,11 @@
         <v>3</v>
       </c>
       <c r="P5" s="4">
-        <v>6255</v>
+        <f>1635+5738</f>
+        <v>7373</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="15:17" x14ac:dyDescent="0.2">
@@ -744,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="P6" s="4">
-        <v>4121</v>
+        <v>2982</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="15:17" x14ac:dyDescent="0.2">
@@ -756,7 +784,7 @@
       </c>
       <c r="P7" s="4">
         <f>+P4-P5+P6</f>
-        <v>45746</v>
+        <v>60377.65</v>
       </c>
     </row>
   </sheetData>
@@ -766,13 +794,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCB2AA-1F81-4F08-BB5B-5CC1179A46E9}">
-  <dimension ref="A1:AB60"/>
+  <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N43" sqref="N43"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -781,11 +809,11 @@
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="2"/>
-    <col min="19" max="28" width="9.140625" style="2"/>
+    <col min="9" max="19" width="9.140625" style="2"/>
+    <col min="24" max="33" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -825,8 +853,40 @@
         <f>+M1+92</f>
         <v>44957</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O1" s="3">
+        <f>+K1+365</f>
+        <v>45046</v>
+      </c>
+      <c r="P1" s="3">
+        <f>+L1+365</f>
+        <v>45138</v>
+      </c>
+      <c r="Q1" s="3">
+        <f>+M1+365</f>
+        <v>45230</v>
+      </c>
+      <c r="R1" s="3">
+        <f>+N1+365</f>
+        <v>45322</v>
+      </c>
+      <c r="S1" s="3">
+        <f>+O1+366</f>
+        <v>45412</v>
+      </c>
+      <c r="T1" s="3">
+        <f t="shared" ref="T1:V1" si="0">+P1+366</f>
+        <v>45504</v>
+      </c>
+      <c r="U1" s="3">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+      <c r="V1" s="3">
+        <f t="shared" si="0"/>
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -863,38 +923,62 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="S2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -934,27 +1018,37 @@
       <c r="N3" s="5">
         <v>1495.402</v>
       </c>
-      <c r="S3" s="5">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>1624</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="4">
+        <v>1903</v>
+      </c>
+      <c r="X3" s="5">
         <f>SUM(C3:F3)</f>
         <v>3838.1940000000004</v>
       </c>
-      <c r="T3" s="5">
+      <c r="Y3" s="5">
         <f>SUM(G3:J3)</f>
         <v>4546.3130000000001</v>
       </c>
-      <c r="U3" s="5">
+      <c r="Z3" s="5">
         <f>SUM(K3:N3)</f>
         <v>5567.2060000000001</v>
       </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+    </row>
+    <row r="4" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -994,64 +1088,74 @@
       <c r="N4" s="5">
         <v>150.858</v>
       </c>
-      <c r="S4" s="5">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="4">
+        <v>182</v>
+      </c>
+      <c r="X4" s="5">
         <f>SUM(C4:F4)</f>
         <v>523.38400000000001</v>
       </c>
-      <c r="T4" s="5">
-        <f t="shared" ref="T4" si="0">SUM(G4:J4)</f>
+      <c r="Y4" s="5">
+        <f>SUM(G4:J4)</f>
         <v>592.48500000000001</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" ref="U4" si="1">SUM(K4:N4)</f>
+      <c r="Z4" s="5">
+        <f>SUM(K4:N4)</f>
         <v>648.61200000000008</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+    </row>
+    <row r="5" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" ref="C5:K5" si="2">+C3+C4</f>
+        <f t="shared" ref="C5:K5" si="1">+C3+C4</f>
         <v>1061.9670000000001</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1061.9670000000001</v>
       </c>
       <c r="E5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1105.96</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1131.684</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1175.0330000000001</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1260.3609999999999</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1327.2630000000001</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1376.1410000000001</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1434.6569999999999</v>
       </c>
       <c r="L5" s="7">
@@ -1066,27 +1170,39 @@
         <f>N3+N4</f>
         <v>1646.26</v>
       </c>
-      <c r="S5" s="7">
-        <f>S3+S4</f>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7">
+        <f>+P3+P4</f>
+        <v>1787</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6">
+        <f>+T3+T4</f>
+        <v>2085</v>
+      </c>
+      <c r="X5" s="7">
+        <f>X3+X4</f>
         <v>4361.5780000000004</v>
       </c>
-      <c r="T5" s="7">
-        <f>T3+T4</f>
+      <c r="Y5" s="7">
+        <f>Y3+Y4</f>
         <v>5138.7979999999998</v>
       </c>
-      <c r="U5" s="7">
-        <f t="shared" ref="U5" si="3">U3+U4</f>
+      <c r="Z5" s="7">
+        <f t="shared" ref="Z5" si="2">Z3+Z4</f>
         <v>6215.8180000000002</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
-    </row>
-    <row r="6" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+    </row>
+    <row r="6" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1135,61 +1251,73 @@
         <f>274.146+179.333</f>
         <v>453.47900000000004</v>
       </c>
-      <c r="S6" s="5">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <f>256+192</f>
+        <v>448</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4">
+        <f>304+207</f>
+        <v>511</v>
+      </c>
+      <c r="X6" s="5">
         <f>SUM(C6:F6)</f>
         <v>892.50200000000007</v>
       </c>
-      <c r="T6" s="5">
-        <f t="shared" ref="T6" si="4">SUM(G6:J6)</f>
+      <c r="Y6" s="5">
+        <f>SUM(G6:J6)</f>
         <v>1428.095</v>
       </c>
-      <c r="U6" s="5">
-        <f t="shared" ref="U6" si="5">SUM(K6:N6)</f>
+      <c r="Z6" s="5">
+        <f>SUM(K6:N6)</f>
         <v>1715.1780000000001</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+    </row>
+    <row r="7" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:K7" si="6">+D5-D6</f>
+        <f t="shared" ref="D7:K7" si="3">+D5-D6</f>
         <v>777.69</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>810.779</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>818.64</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>841.98000000000013</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>914.83999999999992</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>967.53900000000021</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>986.34400000000005</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1031.8359999999998</v>
       </c>
       <c r="L7" s="5">
@@ -1204,27 +1332,39 @@
         <f>N5-N6</f>
         <v>1192.7809999999999</v>
       </c>
-      <c r="S7" s="5">
-        <f>S5-S6</f>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
+        <f>+P5-P6</f>
+        <v>1339</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="4">
+        <f>+T5-T6</f>
+        <v>1574</v>
+      </c>
+      <c r="X7" s="5">
+        <f>X5-X6</f>
         <v>3469.0760000000005</v>
       </c>
-      <c r="T7" s="5">
-        <f>T5-T6</f>
+      <c r="Y7" s="5">
+        <f>Y5-Y6</f>
         <v>3710.7029999999995</v>
       </c>
-      <c r="U7" s="5">
-        <f>U5-U6</f>
+      <c r="Z7" s="5">
+        <f>Z5-Z6</f>
         <v>4500.6400000000003</v>
       </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1262,27 +1402,37 @@
       <c r="N8" s="5">
         <v>615.58900000000006</v>
       </c>
-      <c r="S8" s="5">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5">
+        <v>610</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="4">
+        <v>649</v>
+      </c>
+      <c r="X8" s="5">
         <f>SUM(C8:F8)</f>
         <v>1277.7380000000001</v>
       </c>
-      <c r="T8" s="5">
-        <f t="shared" ref="T8:T10" si="7">SUM(G8:J8)</f>
+      <c r="Y8" s="5">
+        <f>SUM(G8:J8)</f>
         <v>1879.22</v>
       </c>
-      <c r="U8" s="5">
-        <f t="shared" ref="U8:U10" si="8">SUM(K8:N8)</f>
+      <c r="Z8" s="5">
+        <f>SUM(K8:N8)</f>
         <v>2270.66</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1320,27 +1470,37 @@
       <c r="N9" s="5">
         <v>489.89499999999998</v>
       </c>
-      <c r="S9" s="5">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5">
+        <v>524</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="4">
+        <v>611</v>
+      </c>
+      <c r="X9" s="5">
         <f>SUM(C9:F9)</f>
         <v>914.61599999999999</v>
       </c>
-      <c r="T9" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y9" s="5">
+        <f>SUM(G9:J9)</f>
         <v>1461.9210000000003</v>
       </c>
-      <c r="U9" s="5">
-        <f t="shared" si="8"/>
+      <c r="Z9" s="5">
+        <f>SUM(K9:N9)</f>
         <v>1848.0929999999998</v>
       </c>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-    </row>
-    <row r="10" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+    </row>
+    <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1378,165 +1538,239 @@
       <c r="N10" s="5">
         <v>176.255</v>
       </c>
-      <c r="S10" s="5">
+      <c r="O10" s="5"/>
+      <c r="P10" s="5">
+        <v>169</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="4">
+        <v>203</v>
+      </c>
+      <c r="X10" s="5">
         <f>SUM(C10:F10)</f>
         <v>318.89700000000005</v>
       </c>
-      <c r="T10" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y10" s="5">
+        <f>SUM(G10:J10)</f>
         <v>486.01200000000006</v>
       </c>
-      <c r="U10" s="5">
-        <f t="shared" si="8"/>
+      <c r="Z10" s="5">
+        <f>SUM(K10:N10)</f>
         <v>604.08699999999999</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
-    </row>
-    <row r="11" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+    </row>
+    <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:K11" si="9">SUM(D8:D10)</f>
+        <f t="shared" ref="D11:K11" si="4">SUM(D8:D10)</f>
         <v>794.44399999999996</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>824.85599999999999</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>891.95100000000002</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>880.29300000000001</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>915.95999999999992</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>943.59400000000005</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1087.306</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1104.6789999999999</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:N11" si="10">SUM(L8:L10)</f>
+        <f t="shared" ref="L11:N11" si="5">SUM(L8:L10)</f>
         <v>1146.7910000000002</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1189.6310000000001</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1281.739</v>
       </c>
+      <c r="O11" s="5">
+        <f t="shared" ref="O11:V11" si="6">SUM(O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="6"/>
+        <v>1303</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="S11" s="5">
-        <f t="shared" ref="S11:U11" si="11">SUM(S8:S10)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="6"/>
+        <v>1463</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" ref="X11:Z11" si="7">SUM(X8:X10)</f>
         <v>2511.2510000000002</v>
       </c>
-      <c r="T11" s="5">
-        <f t="shared" si="11"/>
+      <c r="Y11" s="5">
+        <f t="shared" si="7"/>
         <v>3827.1530000000007</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" si="11"/>
+      <c r="Z11" s="5">
+        <f t="shared" si="7"/>
         <v>4722.84</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
-    </row>
-    <row r="12" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+    </row>
+    <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <f t="shared" ref="D12:K12" si="12">D7-D11</f>
+        <f t="shared" ref="D12:K12" si="8">D7-D11</f>
         <v>-16.753999999999905</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-14.076999999999998</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-73.311000000000035</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-38.312999999999874</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-1.1200000000000045</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>23.945000000000164</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-100.96199999999999</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>-72.843000000000075</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12:N12" si="13">L7-L11</f>
+        <f t="shared" ref="L12:N12" si="9">L7-L11</f>
         <v>-34.078000000000202</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-26.32100000000014</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>-88.958000000000084</v>
       </c>
+      <c r="O12" s="5">
+        <f t="shared" ref="O12:V12" si="10">O7-O11</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="S12" s="5">
-        <f t="shared" ref="S12:U12" si="14">S7-S11</f>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" ref="X12:Z12" si="11">X7-X11</f>
         <v>957.82500000000027</v>
       </c>
-      <c r="T12" s="5">
-        <f t="shared" si="14"/>
+      <c r="Y12" s="5">
+        <f t="shared" si="11"/>
         <v>-116.45000000000118</v>
       </c>
-      <c r="U12" s="5">
-        <f t="shared" si="14"/>
+      <c r="Z12" s="5">
+        <f t="shared" si="11"/>
         <v>-222.19999999999982</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+    </row>
+    <row r="13" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1574,61 +1808,68 @@
       <c r="N13" s="5">
         <v>11.039</v>
       </c>
-      <c r="S13" s="5">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="X13" s="5">
         <f>SUM(C13:F13)</f>
         <v>-15.561999999999999</v>
       </c>
-      <c r="T13" s="5">
-        <f t="shared" ref="T13" si="15">SUM(G13:J13)</f>
+      <c r="Y13" s="5">
+        <f t="shared" ref="Y13" si="12">SUM(G13:J13)</f>
         <v>29.646999999999998</v>
       </c>
-      <c r="U13" s="5">
-        <f t="shared" ref="U13" si="16">SUM(K13:N13)</f>
+      <c r="Z13" s="5">
+        <f t="shared" ref="Z13" si="13">SUM(K13:N13)</f>
         <v>-37.75</v>
       </c>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+    </row>
+    <row r="14" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:K14" si="17">+D12+D13</f>
+        <f t="shared" ref="D14:K14" si="14">+D12+D13</f>
         <v>-28.206999999999905</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-22.922999999999998</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-68.574000000000041</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-47.363999999999876</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-1.1200000000000045</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>45.502000000000166</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-83.820999999999998</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>-93.006000000000071</v>
       </c>
       <c r="L14" s="5">
@@ -1643,27 +1884,59 @@
         <f>N12+N13</f>
         <v>-77.919000000000082</v>
       </c>
+      <c r="O14" s="5">
+        <f t="shared" ref="O14:V14" si="15">O12+O13</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="S14" s="5">
-        <f>S12+S13</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="15"/>
+        <v>111</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <f>X12+X13</f>
         <v>942.26300000000026</v>
       </c>
-      <c r="T14" s="5">
-        <f>T12+T13</f>
+      <c r="Y14" s="5">
+        <f>Y12+Y13</f>
         <v>-86.803000000001191</v>
       </c>
-      <c r="U14" s="5">
-        <f>U12+U13</f>
+      <c r="Z14" s="5">
+        <f>Z12+Z13</f>
         <v>-259.94999999999982</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+    </row>
+    <row r="15" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1701,157 +1974,228 @@
       <c r="N15" s="5">
         <v>0</v>
       </c>
-      <c r="S15" s="5">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="X15" s="5">
         <f>SUM(C15:F15)</f>
         <v>4.359</v>
       </c>
-      <c r="T15" s="5">
-        <f t="shared" ref="T15" si="18">SUM(G15:J15)</f>
+      <c r="Y15" s="5">
+        <f t="shared" ref="Y15" si="16">SUM(G15:J15)</f>
         <v>7.9449999999999994</v>
       </c>
-      <c r="U15" s="5">
-        <f t="shared" ref="U15" si="19">SUM(K15:N15)</f>
+      <c r="Z15" s="5">
+        <f t="shared" ref="Z15" si="17">SUM(K15:N15)</f>
         <v>61.730000000000004</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+    </row>
+    <row r="16" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:K16" si="20">+D14-D15</f>
+        <f t="shared" ref="D16:K16" si="18">+D14-D15</f>
         <v>-28.015999999999906</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-24.34</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-71.707000000000036</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-46.521999999999878</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2.7509999999999954</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>43.412000000000162</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-94.388999999999996</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-102.17300000000007</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:N16" si="21">+L14-L15</f>
+        <f t="shared" ref="L16:V16" si="19">+L14-L15</f>
         <v>-66.867000000000203</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-74.721000000000146</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-77.919000000000082</v>
       </c>
+      <c r="O16" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="19"/>
+        <v>79</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="S16" s="5">
-        <f>S14-S15</f>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="19"/>
+        <v>111</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <f>X14-X15</f>
         <v>937.90400000000022</v>
       </c>
-      <c r="T16" s="5">
-        <f>T14-T15</f>
+      <c r="Y16" s="5">
+        <f>Y14-Y15</f>
         <v>-94.748000000001184</v>
       </c>
-      <c r="U16" s="5">
-        <f>U14-U15</f>
+      <c r="Z16" s="5">
+        <f>Z14-Z15</f>
         <v>-321.67999999999984</v>
       </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17:K17" si="22">+D16/D18</f>
+        <f t="shared" ref="D17:K17" si="20">+D16/D18</f>
         <v>-0.11871085838255567</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-0.10224356147005574</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-0.29754929624219906</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-0.19086810071428814</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1.0580118146575578E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.17040351703564202</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-0.37749107153569583</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-0.40586232785022852</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" ref="L17:N17" si="23">+L16/L18</f>
+        <f t="shared" ref="L17:V17" si="21">+L16/L18</f>
         <v>-0.2614514785750322</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-0.29216079576779219</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-0.30280737752698983</v>
       </c>
+      <c r="O17" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="21"/>
+        <v>0.29875016544708527</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="S17" s="8">
-        <f>S16/S18</f>
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="21"/>
+        <v>0.41425793714475512</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <f>X16/X18</f>
         <v>3.9349698553813504</v>
       </c>
-      <c r="T17" s="8">
-        <f>T16/T18</f>
+      <c r="Y17" s="8">
+        <f>Y16/Y18</f>
         <v>-0.37577610806716594</v>
       </c>
-      <c r="U17" s="8">
-        <f>U16/U18</f>
+      <c r="Z17" s="8">
+        <f>Z16/Z18</f>
         <v>-1.2607844040248051</v>
       </c>
     </row>
-    <row r="18" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
@@ -1889,27 +2233,57 @@
       <c r="N18" s="5">
         <v>257.322</v>
       </c>
+      <c r="O18" s="5">
+        <f>+N18</f>
+        <v>257.322</v>
+      </c>
+      <c r="P18" s="5">
+        <v>264.435</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" ref="Q18:V18" si="22">+P18</f>
+        <v>264.435</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="22"/>
+        <v>264.435</v>
+      </c>
       <c r="S18" s="5">
+        <f t="shared" si="22"/>
+        <v>264.435</v>
+      </c>
+      <c r="T18" s="5">
+        <v>267.94900000000001</v>
+      </c>
+      <c r="U18" s="5">
+        <f t="shared" si="22"/>
+        <v>267.94900000000001</v>
+      </c>
+      <c r="V18" s="5">
+        <f t="shared" si="22"/>
+        <v>267.94900000000001</v>
+      </c>
+      <c r="X18" s="5">
         <f>AVERAGE(C18:F18)</f>
         <v>238.351</v>
       </c>
-      <c r="T18" s="5">
+      <c r="Y18" s="5">
         <f>AVERAGE(G18:J18)</f>
         <v>252.1395</v>
       </c>
-      <c r="U18" s="5">
+      <c r="Z18" s="5">
         <f>AVERAGE(K18:N18)</f>
         <v>255.14275000000001</v>
       </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-    </row>
-    <row r="19" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+    </row>
+    <row r="19" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1922,20 +2296,25 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-    </row>
-    <row r="20" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+    </row>
+    <row r="20" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1955,41 +2334,73 @@
         <v>0.21601171351720105</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" ref="K20" si="24">+K5/G5-1</f>
+        <f t="shared" ref="K20" si="23">+K5/G5-1</f>
         <v>0.22095039032946295</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" ref="L20" si="25">+L5/H5-1</f>
+        <f t="shared" ref="L20" si="24">+L5/H5-1</f>
         <v>0.21853818072758524</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20" si="26">+M5/I5-1</f>
+        <f t="shared" ref="M20" si="25">+M5/I5-1</f>
         <v>0.20481245992693231</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" ref="N20" si="27">+N5/J5-1</f>
+        <f t="shared" ref="N20:O20" si="26">+N5/J5-1</f>
         <v>0.19628729904857134</v>
       </c>
-      <c r="S20" s="5"/>
+      <c r="O20" s="10">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" ref="P20" si="27">+P5/L5-1</f>
+        <v>0.16356447918280925</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" ref="Q20" si="28">+Q5/M5-1</f>
+        <v>-1</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" ref="R20" si="29">+R5/N5-1</f>
+        <v>-1</v>
+      </c>
+      <c r="S20" s="10" t="e">
+        <f t="shared" ref="S20" si="30">+S5/O5-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T20" s="10">
-        <f>T5/S5-1</f>
+        <f t="shared" ref="T20" si="31">+T5/P5-1</f>
+        <v>0.16675993284834911</v>
+      </c>
+      <c r="U20" s="10" t="e">
+        <f t="shared" ref="U20" si="32">+U5/Q5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="10" t="e">
+        <f t="shared" ref="V20" si="33">+V5/R5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="10">
+        <f>Y5/X5-1</f>
         <v>0.17819697366411869</v>
       </c>
-      <c r="U20" s="10">
-        <f>U5/T5-1</f>
+      <c r="Z20" s="10">
+        <f>Z5/Y5-1</f>
         <v>0.2095859771098223</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="5">
         <f>K23-K38</f>
@@ -1999,8 +2410,17 @@
         <f>N23-N38</f>
         <v>3145.4599999999991</v>
       </c>
-    </row>
-    <row r="23" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5">
+        <f>T23-T38</f>
+        <v>4397.0659999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2022,18 +2442,27 @@
         <f>1886.311+4235.083</f>
         <v>6121.3939999999993</v>
       </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="T23" s="5">
+        <f>1635+5738</f>
+        <v>7373</v>
+      </c>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
-    </row>
-    <row r="24" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+    </row>
+    <row r="24" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2053,18 +2482,26 @@
       <c r="N24" s="5">
         <v>1570.086</v>
       </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+      <c r="T24" s="5">
+        <v>1292</v>
+      </c>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-    </row>
-    <row r="25" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+    </row>
+    <row r="25" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2086,18 +2523,27 @@
         <f>191.054+420.988</f>
         <v>612.04200000000003</v>
       </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
+      <c r="T25" s="5">
+        <f>237+1022</f>
+        <v>1259</v>
+      </c>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
-    </row>
-    <row r="26" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+    </row>
+    <row r="26" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2117,18 +2563,26 @@
       <c r="N26" s="5">
         <v>225.69</v>
       </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="T26" s="5">
+        <v>298</v>
+      </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
-    </row>
-    <row r="27" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+    </row>
+    <row r="27" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -2148,18 +2602,26 @@
       <c r="N27" s="5">
         <v>1201.2539999999999</v>
       </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+      <c r="T27" s="5">
+        <v>1259</v>
+      </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-    </row>
-    <row r="28" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+    </row>
+    <row r="28" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
@@ -2180,18 +2642,26 @@
         <f>249.278</f>
         <v>249.27799999999999</v>
       </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
+      <c r="T28" s="5">
+        <v>339</v>
+      </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
-    </row>
-    <row r="29" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+    </row>
+    <row r="29" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
@@ -2213,18 +2683,27 @@
         <f>2840.044+305.465</f>
         <v>3145.509</v>
       </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
+      <c r="T29" s="5">
+        <f>3257+331</f>
+        <v>3588</v>
+      </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+    </row>
+    <row r="30" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
@@ -2244,18 +2723,26 @@
       <c r="N30" s="5">
         <v>360.98500000000001</v>
       </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
+      <c r="T30" s="5">
+        <v>339</v>
+      </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-    </row>
-    <row r="31" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+    </row>
+    <row r="31" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
@@ -2277,18 +2764,30 @@
         <f>SUM(N23:N30)</f>
         <v>13486.238000000001</v>
       </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="T31" s="5">
+        <f>SUM(T23:T30)</f>
+        <v>15747</v>
+      </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-    </row>
-    <row r="33" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
@@ -2308,18 +2807,26 @@
       <c r="N33" s="5">
         <v>153.751</v>
       </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="T33" s="5">
+        <v>153.751</v>
+      </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-    </row>
-    <row r="34" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+    </row>
+    <row r="34" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -2339,18 +2846,26 @@
       <c r="N34" s="5">
         <v>260.13099999999997</v>
       </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
+      <c r="T34" s="5">
+        <v>260.13099999999997</v>
+      </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-    </row>
-    <row r="35" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+    </row>
+    <row r="35" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
@@ -2370,18 +2885,26 @@
       <c r="N35" s="5">
         <v>563.548</v>
       </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
+      <c r="T35" s="5">
+        <v>563.548</v>
+      </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
-    </row>
-    <row r="36" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+    </row>
+    <row r="36" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2406,18 +2929,27 @@
         <f>3559.393+74.54</f>
         <v>3633.933</v>
       </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="T36" s="5">
+        <f>3559.393+74.54</f>
+        <v>3633.933</v>
+      </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-    </row>
-    <row r="37" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+    </row>
+    <row r="37" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
@@ -2439,18 +2971,27 @@
         <f>91.343+181.799</f>
         <v>273.142</v>
       </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
+      <c r="T37" s="5">
+        <f>91.343+181.799</f>
+        <v>273.142</v>
+      </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-    </row>
-    <row r="38" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+    </row>
+    <row r="38" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
@@ -2472,18 +3013,27 @@
         <f>2975.934</f>
         <v>2975.9340000000002</v>
       </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
+      <c r="T38" s="5">
+        <f>2975.934</f>
+        <v>2975.9340000000002</v>
+      </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-    </row>
-    <row r="39" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+    </row>
+    <row r="39" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
@@ -2503,18 +3053,26 @@
       <c r="N39" s="5">
         <v>40.231000000000002</v>
       </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
+      <c r="T39" s="5">
+        <v>40.231000000000002</v>
+      </c>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-    </row>
-    <row r="40" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+    </row>
+    <row r="40" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
@@ -2534,18 +3092,26 @@
       <c r="N40" s="5">
         <v>5585.5680000000002</v>
       </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
+      <c r="T40" s="5">
+        <v>5585.5680000000002</v>
+      </c>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-    </row>
-    <row r="41" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+    </row>
+    <row r="41" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
@@ -2567,18 +3133,27 @@
         <f>SUM(N33:N40)</f>
         <v>13486.238000000001</v>
       </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
+      <c r="T41" s="5">
+        <f>SUM(T33:T40)</f>
+        <v>13486.238000000001</v>
+      </c>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-    </row>
-    <row r="43" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+    </row>
+    <row r="43" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>34</v>
       </c>
@@ -2609,18 +3184,23 @@
         <f>+N16</f>
         <v>-77.919000000000082</v>
       </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-    </row>
-    <row r="44" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+    </row>
+    <row r="44" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
@@ -2640,18 +3220,23 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-    </row>
-    <row r="45" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+    </row>
+    <row r="45" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2671,18 +3256,23 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-    </row>
-    <row r="46" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+    </row>
+    <row r="46" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2702,18 +3292,23 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-    </row>
-    <row r="47" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+    </row>
+    <row r="47" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2733,18 +3328,23 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
-    </row>
-    <row r="48" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+    </row>
+    <row r="48" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2764,18 +3364,23 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
-    </row>
-    <row r="49" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2795,18 +3400,23 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-    </row>
-    <row r="50" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+    </row>
+    <row r="50" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
@@ -2826,18 +3436,23 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-    </row>
-    <row r="51" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+    </row>
+    <row r="51" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -2857,18 +3472,23 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
-    </row>
-    <row r="52" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+    </row>
+    <row r="52" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
@@ -2888,18 +3508,23 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-    </row>
-    <row r="53" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+    </row>
+    <row r="53" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
@@ -2919,18 +3544,23 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
-    </row>
-    <row r="54" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+    </row>
+    <row r="54" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
@@ -2950,18 +3580,23 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
-    </row>
-    <row r="55" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+    </row>
+    <row r="55" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
@@ -2981,18 +3616,23 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
-    </row>
-    <row r="56" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+    </row>
+    <row r="56" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
@@ -3012,18 +3652,23 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
-    </row>
-    <row r="57" spans="2:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+    </row>
+    <row r="57" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
@@ -3045,25 +3690,35 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-    </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N60" s="10">
         <f>N36/J36-1</f>
         <v>0.14185572258113166</v>
       </c>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/WDAY.xlsx
+++ b/WDAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9E3CFC-8873-4B39-AC61-5F089D7EE839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165998C2-6351-2F41-A5E5-10A2994E9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51090" yWindow="375" windowWidth="29955" windowHeight="20025" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20560" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>Price</t>
   </si>
@@ -270,6 +270,18 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>FQ326</t>
+  </si>
+  <si>
+    <t>FQ426</t>
   </si>
 </sst>
 </file>
@@ -370,14 +382,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>23237</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>49513</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>23237</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>49513</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -394,8 +406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12563392" y="0"/>
-          <a:ext cx="0" cy="8315982"/>
+          <a:off x="15061789" y="0"/>
+          <a:ext cx="0" cy="8425465"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -724,9 +736,9 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +746,7 @@
         <v>244.41</v>
       </c>
     </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O3" t="s">
         <v>1</v>
       </c>
@@ -746,7 +758,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O4" t="s">
         <v>2</v>
       </c>
@@ -755,7 +767,7 @@
         <v>64768.65</v>
       </c>
     </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +779,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O6" t="s">
         <v>4</v>
       </c>
@@ -778,7 +790,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="15:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="15:17" x14ac:dyDescent="0.15">
       <c r="O7" t="s">
         <v>5</v>
       </c>
@@ -794,26 +806,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCB2AA-1F81-4F08-BB5B-5CC1179A46E9}">
-  <dimension ref="A1:AG60"/>
+  <dimension ref="A1:AL60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.7109375" style="2" customWidth="1"/>
-    <col min="9" max="19" width="9.140625" style="2"/>
-    <col min="24" max="33" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.1640625" style="2"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
+    <col min="9" max="19" width="9.1640625" style="2"/>
+    <col min="29" max="38" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -885,8 +897,13 @@
         <f t="shared" si="0"/>
         <v>45688</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -947,38 +964,51 @@
       <c r="V2" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="W2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="X2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1022,33 +1052,41 @@
       <c r="P3" s="5">
         <v>1624</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5">
+        <v>1691</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="4">
         <v>1903</v>
       </c>
-      <c r="X3" s="5">
+      <c r="U3" s="4">
+        <v>1959</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2025</v>
+      </c>
+      <c r="AC3" s="5">
         <f>SUM(C3:F3)</f>
         <v>3838.1940000000004</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AD3" s="5">
         <f>SUM(G3:J3)</f>
         <v>4546.3130000000001</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AE3" s="5">
         <f>SUM(K3:N3)</f>
         <v>5567.2060000000001</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-    </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1092,33 +1130,42 @@
       <c r="P4" s="5">
         <v>163</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5">
+        <v>175</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="4">
         <v>182</v>
       </c>
-      <c r="X4" s="5">
+      <c r="U4" s="4">
+        <v>201</v>
+      </c>
+      <c r="V4" s="4">
+        <f>U4</f>
+        <v>201</v>
+      </c>
+      <c r="AC4" s="5">
         <f>SUM(C4:F4)</f>
         <v>523.38400000000001</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="AD4" s="5">
         <f>SUM(G4:J4)</f>
         <v>592.48500000000001</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="AE4" s="5">
         <f>SUM(K4:N4)</f>
         <v>648.61200000000008</v>
       </c>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-    </row>
-    <row r="5" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1175,34 +1222,45 @@
         <f>+P3+P4</f>
         <v>1787</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7">
+        <f>+Q3+Q4</f>
+        <v>1866</v>
+      </c>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="6">
         <f>+T3+T4</f>
         <v>2085</v>
       </c>
-      <c r="X5" s="7">
-        <f>X3+X4</f>
+      <c r="U5" s="6">
+        <f>+U3+U4</f>
+        <v>2160</v>
+      </c>
+      <c r="V5" s="6">
+        <f>+V3+V4</f>
+        <v>2226</v>
+      </c>
+      <c r="AC5" s="7">
+        <f>AC3+AC4</f>
         <v>4361.5780000000004</v>
       </c>
-      <c r="Y5" s="7">
-        <f>Y3+Y4</f>
+      <c r="AD5" s="7">
+        <f>AD3+AD4</f>
         <v>5138.7979999999998</v>
       </c>
-      <c r="Z5" s="7">
-        <f t="shared" ref="Z5" si="2">Z3+Z4</f>
+      <c r="AE5" s="7">
+        <f t="shared" ref="AE5" si="2">AE3+AE4</f>
         <v>6215.8180000000002</v>
       </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
-    </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+    </row>
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1256,34 +1314,41 @@
         <f>256+192</f>
         <v>448</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <f>264+181</f>
+        <v>445</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4">
         <f>304+207</f>
         <v>511</v>
       </c>
-      <c r="X6" s="5">
+      <c r="U6" s="4">
+        <f>329+201</f>
+        <v>530</v>
+      </c>
+      <c r="AC6" s="5">
         <f>SUM(C6:F6)</f>
         <v>892.50200000000007</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="AD6" s="5">
         <f>SUM(G6:J6)</f>
         <v>1428.095</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AE6" s="5">
         <f>SUM(K6:N6)</f>
         <v>1715.1780000000001</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-    </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1337,34 +1402,41 @@
         <f>+P5-P6</f>
         <v>1339</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <f>+Q5-Q6</f>
+        <v>1421</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="4">
         <f>+T5-T6</f>
         <v>1574</v>
       </c>
-      <c r="X7" s="5">
-        <f>X5-X6</f>
+      <c r="U7" s="4">
+        <f>+U5-U6</f>
+        <v>1630</v>
+      </c>
+      <c r="AC7" s="5">
+        <f>AC5-AC6</f>
         <v>3469.0760000000005</v>
       </c>
-      <c r="Y7" s="5">
-        <f>Y5-Y6</f>
+      <c r="AD7" s="5">
+        <f>AD5-AD6</f>
         <v>3710.7029999999995</v>
       </c>
-      <c r="Z7" s="5">
-        <f>Z5-Z6</f>
+      <c r="AE7" s="5">
+        <f>AE5-AE6</f>
         <v>4500.6400000000003</v>
       </c>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-    </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1406,33 +1478,38 @@
       <c r="P8" s="5">
         <v>610</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>619</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="4">
         <v>649</v>
       </c>
-      <c r="X8" s="5">
+      <c r="U8" s="4">
+        <v>647</v>
+      </c>
+      <c r="AC8" s="5">
         <f>SUM(C8:F8)</f>
         <v>1277.7380000000001</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="AD8" s="5">
         <f>SUM(G8:J8)</f>
         <v>1879.22</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AE8" s="5">
         <f>SUM(K8:N8)</f>
         <v>2270.66</v>
       </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-    </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1474,33 +1551,38 @@
       <c r="P9" s="5">
         <v>524</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5">
+        <v>538</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="4">
         <v>611</v>
       </c>
-      <c r="X9" s="5">
+      <c r="U9" s="4">
+        <v>620</v>
+      </c>
+      <c r="AC9" s="5">
         <f>SUM(C9:F9)</f>
         <v>914.61599999999999</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AD9" s="5">
         <f>SUM(G9:J9)</f>
         <v>1461.9210000000003</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AE9" s="5">
         <f>SUM(K9:N9)</f>
         <v>1848.0929999999998</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-    </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1542,33 +1624,38 @@
       <c r="P10" s="5">
         <v>169</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5">
+        <v>176</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="4">
         <v>203</v>
       </c>
-      <c r="X10" s="5">
+      <c r="U10" s="4">
+        <v>198</v>
+      </c>
+      <c r="AC10" s="5">
         <f>SUM(C10:F10)</f>
         <v>318.89700000000005</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="AD10" s="5">
         <f>SUM(G10:J10)</f>
         <v>486.01200000000006</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AE10" s="5">
         <f>SUM(K10:N10)</f>
         <v>604.08699999999999</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-    </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1627,7 +1714,7 @@
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" si="6"/>
@@ -1643,33 +1730,38 @@
       </c>
       <c r="U11" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1465</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" ref="X11:Z11" si="7">SUM(X8:X10)</f>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AC11" s="5">
+        <f t="shared" ref="AC11:AE11" si="7">SUM(AC8:AC10)</f>
         <v>2511.2510000000002</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="AD11" s="5">
         <f t="shared" si="7"/>
         <v>3827.1530000000007</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AE11" s="5">
         <f t="shared" si="7"/>
         <v>4722.84</v>
       </c>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
-    </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1728,7 +1820,7 @@
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="10"/>
@@ -1744,33 +1836,38 @@
       </c>
       <c r="U12" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X12" s="5">
-        <f t="shared" ref="X12:Z12" si="11">X7-X11</f>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AC12" s="5">
+        <f t="shared" ref="AC12:AE12" si="11">AC7-AC11</f>
         <v>957.82500000000027</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="AD12" s="5">
         <f t="shared" si="11"/>
         <v>-116.45000000000118</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AE12" s="5">
         <f t="shared" si="11"/>
         <v>-222.19999999999982</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-    </row>
-    <row r="13" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1812,30 +1909,35 @@
       <c r="P13" s="5">
         <v>46</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <v>41</v>
+      </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="X13" s="5">
+      <c r="U13" s="4">
+        <v>62</v>
+      </c>
+      <c r="AC13" s="5">
         <f>SUM(C13:F13)</f>
         <v>-15.561999999999999</v>
       </c>
-      <c r="Y13" s="5">
-        <f t="shared" ref="Y13" si="12">SUM(G13:J13)</f>
+      <c r="AD13" s="5">
+        <f t="shared" ref="AD13" si="12">SUM(G13:J13)</f>
         <v>29.646999999999998</v>
       </c>
-      <c r="Z13" s="5">
-        <f t="shared" ref="Z13" si="13">SUM(K13:N13)</f>
+      <c r="AE13" s="5">
+        <f t="shared" ref="AE13" si="13">SUM(K13:N13)</f>
         <v>-37.75</v>
       </c>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-    </row>
-    <row r="14" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
@@ -1894,7 +1996,7 @@
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" si="15"/>
@@ -1910,33 +2012,38 @@
       </c>
       <c r="U14" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="V14" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X14" s="5">
-        <f>X12+X13</f>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AC14" s="5">
+        <f>AC12+AC13</f>
         <v>942.26300000000026</v>
       </c>
-      <c r="Y14" s="5">
-        <f>Y12+Y13</f>
+      <c r="AD14" s="5">
+        <f>AD12+AD13</f>
         <v>-86.803000000001191</v>
       </c>
-      <c r="Z14" s="5">
-        <f>Z12+Z13</f>
+      <c r="AE14" s="5">
+        <f>AE12+AE13</f>
         <v>-259.94999999999982</v>
       </c>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
-    </row>
-    <row r="15" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1978,30 +2085,35 @@
       <c r="P15" s="5">
         <v>3</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="5">
+        <v>15</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="X15" s="5">
+      <c r="U15" s="4">
+        <v>34</v>
+      </c>
+      <c r="AC15" s="5">
         <f>SUM(C15:F15)</f>
         <v>4.359</v>
       </c>
-      <c r="Y15" s="5">
-        <f t="shared" ref="Y15" si="16">SUM(G15:J15)</f>
+      <c r="AD15" s="5">
+        <f t="shared" ref="AD15" si="16">SUM(G15:J15)</f>
         <v>7.9449999999999994</v>
       </c>
-      <c r="Z15" s="5">
-        <f t="shared" ref="Z15" si="17">SUM(K15:N15)</f>
+      <c r="AE15" s="5">
+        <f t="shared" ref="AE15" si="17">SUM(K15:N15)</f>
         <v>61.730000000000004</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-    </row>
-    <row r="16" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
@@ -2060,7 +2172,7 @@
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="19"/>
@@ -2076,33 +2188,38 @@
       </c>
       <c r="U16" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="V16" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="X16" s="5">
-        <f>X14-X15</f>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AC16" s="5">
+        <f>AC14-AC15</f>
         <v>937.90400000000022</v>
       </c>
-      <c r="Y16" s="5">
-        <f>Y14-Y15</f>
+      <c r="AD16" s="5">
+        <f>AD14-AD15</f>
         <v>-94.748000000001184</v>
       </c>
-      <c r="Z16" s="5">
-        <f>Z14-Z15</f>
+      <c r="AE16" s="5">
+        <f>AE14-AE15</f>
         <v>-321.67999999999984</v>
       </c>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2160,7 +2277,7 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.42796487684747553</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="21"/>
@@ -2176,26 +2293,31 @@
       </c>
       <c r="U17" s="8">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.71867703845480724</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X17" s="8">
-        <f>X16/X18</f>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AC17" s="8">
+        <f>AC16/AC18</f>
         <v>3.9349698553813504</v>
       </c>
-      <c r="Y17" s="8">
-        <f>Y16/Y18</f>
+      <c r="AD17" s="8">
+        <f>AD16/AD18</f>
         <v>-0.37577610806716594</v>
       </c>
-      <c r="Z17" s="8">
-        <f>Z16/Z18</f>
+      <c r="AE17" s="8">
+        <f>AE16/AE18</f>
         <v>-1.2607844040248051</v>
       </c>
     </row>
-    <row r="18" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
@@ -2241,49 +2363,52 @@
         <v>264.435</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:V18" si="22">+P18</f>
-        <v>264.435</v>
+        <v>266.37700000000001</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="22"/>
-        <v>264.435</v>
+        <f t="shared" ref="Q18:V18" si="22">+Q18</f>
+        <v>266.37700000000001</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" si="22"/>
-        <v>264.435</v>
+        <v>266.37700000000001</v>
       </c>
       <c r="T18" s="5">
         <v>267.94900000000001</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="22"/>
-        <v>267.94900000000001</v>
+        <v>268.54899999999998</v>
       </c>
       <c r="V18" s="5">
         <f t="shared" si="22"/>
-        <v>267.94900000000001</v>
-      </c>
-      <c r="X18" s="5">
+        <v>268.54899999999998</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AC18" s="5">
         <f>AVERAGE(C18:F18)</f>
         <v>238.351</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="AD18" s="5">
         <f>AVERAGE(G18:J18)</f>
         <v>252.1395</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AE18" s="5">
         <f>AVERAGE(K18:N18)</f>
         <v>255.14275000000001</v>
       </c>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
-    </row>
-    <row r="19" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2301,18 +2426,18 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-    </row>
-    <row r="20" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2359,7 +2484,7 @@
       </c>
       <c r="Q20" s="10">
         <f t="shared" ref="Q20" si="28">+Q5/M5-1</f>
-        <v>-1</v>
+        <v>0.16690419566469439</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" ref="R20" si="29">+R5/N5-1</f>
@@ -2373,32 +2498,37 @@
         <f t="shared" ref="T20" si="31">+T5/P5-1</f>
         <v>0.16675993284834911</v>
       </c>
-      <c r="U20" s="10" t="e">
+      <c r="U20" s="10">
         <f t="shared" ref="U20" si="32">+U5/Q5-1</f>
-        <v>#DIV/0!</v>
+        <v>0.157556270096463</v>
       </c>
       <c r="V20" s="10" t="e">
         <f t="shared" ref="V20" si="33">+V5/R5-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="10">
-        <f>Y5/X5-1</f>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="10">
+        <f>AD5/AC5-1</f>
         <v>0.17819697366411869</v>
       </c>
-      <c r="Z20" s="10">
-        <f>Z5/Y5-1</f>
+      <c r="AE20" s="10">
+        <f>AE5/AD5-1</f>
         <v>0.2095859771098223</v>
       </c>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>67</v>
       </c>
@@ -2419,8 +2549,12 @@
         <f>T23-T38</f>
         <v>4397.0659999999998</v>
       </c>
-    </row>
-    <row r="23" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U22" s="5">
+        <f>U23-U38</f>
+        <v>4174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2451,18 +2585,22 @@
         <f>1635+5738</f>
         <v>7373</v>
       </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
+      <c r="U23" s="4">
+        <f>1311+5846</f>
+        <v>7157</v>
+      </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-    </row>
-    <row r="24" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2490,18 +2628,21 @@
       <c r="T24" s="5">
         <v>1292</v>
       </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+      <c r="U24" s="4">
+        <v>1404</v>
+      </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-    </row>
-    <row r="25" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4" t="s">
         <v>40</v>
       </c>
@@ -2532,18 +2673,22 @@
         <f>237+1022</f>
         <v>1259</v>
       </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
+      <c r="U25" s="4">
+        <f>244+1031+490</f>
+        <v>1765</v>
+      </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-    </row>
-    <row r="26" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2571,18 +2716,21 @@
       <c r="T26" s="5">
         <v>298</v>
       </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
+      <c r="U26" s="4">
+        <v>273</v>
+      </c>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
-    </row>
-    <row r="27" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
@@ -2610,18 +2758,21 @@
       <c r="T27" s="5">
         <v>1259</v>
       </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
+      <c r="U27" s="4">
+        <v>1263</v>
+      </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-    </row>
-    <row r="28" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
@@ -2650,18 +2801,21 @@
       <c r="T28" s="5">
         <v>339</v>
       </c>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="U28" s="4">
+        <v>335</v>
+      </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-    </row>
-    <row r="29" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
@@ -2692,18 +2846,22 @@
         <f>3257+331</f>
         <v>3588</v>
       </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
+      <c r="U29" s="4">
+        <f>3479+383</f>
+        <v>3862</v>
+      </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
-    </row>
-    <row r="30" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
@@ -2731,18 +2889,21 @@
       <c r="T30" s="5">
         <v>339</v>
       </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="U30" s="4">
+        <v>365</v>
+      </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
-    </row>
-    <row r="31" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
@@ -2773,21 +2934,25 @@
         <f>SUM(T23:T30)</f>
         <v>15747</v>
       </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
+      <c r="U31" s="5">
+        <f>SUM(U23:U30)</f>
+        <v>16424</v>
+      </c>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
@@ -2815,18 +2980,21 @@
       <c r="T33" s="5">
         <v>153.751</v>
       </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
+      <c r="U33" s="4">
+        <v>74</v>
+      </c>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
-    </row>
-    <row r="34" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -2854,18 +3022,21 @@
       <c r="T34" s="5">
         <v>260.13099999999997</v>
       </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
+      <c r="U34" s="4">
+        <v>323</v>
+      </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
-    </row>
-    <row r="35" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
@@ -2893,18 +3064,21 @@
       <c r="T35" s="5">
         <v>563.548</v>
       </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
+      <c r="U35" s="4">
+        <v>476</v>
+      </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
-    </row>
-    <row r="36" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
@@ -2938,18 +3112,22 @@
         <f>3559.393+74.54</f>
         <v>3633.933</v>
       </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
+      <c r="U36" s="4">
+        <f>3447+64</f>
+        <v>3511</v>
+      </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
-    </row>
-    <row r="37" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
@@ -2980,18 +3158,22 @@
         <f>91.343+181.799</f>
         <v>273.142</v>
       </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
+      <c r="U37" s="4">
+        <f>102+278</f>
+        <v>380</v>
+      </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
-    </row>
-    <row r="38" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
@@ -3022,18 +3204,21 @@
         <f>2975.934</f>
         <v>2975.9340000000002</v>
       </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="U38" s="4">
+        <v>2983</v>
+      </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
-    </row>
-    <row r="39" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>48</v>
       </c>
@@ -3061,18 +3246,21 @@
       <c r="T39" s="5">
         <v>40.231000000000002</v>
       </c>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
+      <c r="U39" s="4">
+        <v>53</v>
+      </c>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
-    </row>
-    <row r="40" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+    </row>
+    <row r="40" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="4" t="s">
         <v>54</v>
       </c>
@@ -3100,18 +3288,21 @@
       <c r="T40" s="5">
         <v>5585.5680000000002</v>
       </c>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+      <c r="U40" s="4">
+        <v>8624</v>
+      </c>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
-    </row>
-    <row r="41" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+    </row>
+    <row r="41" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
@@ -3142,18 +3333,22 @@
         <f>SUM(T33:T40)</f>
         <v>13486.238000000001</v>
       </c>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
+      <c r="U41" s="5">
+        <f>SUM(U33:U40)</f>
+        <v>16424</v>
+      </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
-    </row>
-    <row r="43" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+    </row>
+    <row r="43" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>34</v>
       </c>
@@ -3189,18 +3384,18 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
-    </row>
-    <row r="44" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
@@ -3225,18 +3420,18 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
-    </row>
-    <row r="45" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+    </row>
+    <row r="45" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
@@ -3261,18 +3456,18 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
-    </row>
-    <row r="46" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+    </row>
+    <row r="46" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>44</v>
       </c>
@@ -3297,18 +3492,18 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
-    </row>
-    <row r="47" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+    </row>
+    <row r="47" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
         <v>45</v>
       </c>
@@ -3333,18 +3528,18 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
-    </row>
-    <row r="48" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+    </row>
+    <row r="48" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
         <v>46</v>
       </c>
@@ -3369,18 +3564,18 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
-    </row>
-    <row r="49" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+    </row>
+    <row r="49" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="4" t="s">
         <v>47</v>
       </c>
@@ -3405,18 +3600,18 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
-    </row>
-    <row r="50" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+    </row>
+    <row r="50" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>48</v>
       </c>
@@ -3441,18 +3636,18 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
-    </row>
-    <row r="51" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+    </row>
+    <row r="51" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
@@ -3477,18 +3672,18 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
-    </row>
-    <row r="52" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+    </row>
+    <row r="52" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
@@ -3513,18 +3708,18 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
-    </row>
-    <row r="53" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+    </row>
+    <row r="53" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
@@ -3549,18 +3744,18 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
-    </row>
-    <row r="54" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+    </row>
+    <row r="54" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
@@ -3585,18 +3780,18 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
-    </row>
-    <row r="55" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+    </row>
+    <row r="55" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
         <v>38</v>
       </c>
@@ -3621,18 +3816,18 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
-    </row>
-    <row r="56" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+    </row>
+    <row r="56" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
@@ -3657,18 +3852,18 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
-    </row>
-    <row r="57" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+    </row>
+    <row r="57" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
@@ -3695,18 +3890,18 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
-    </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+    </row>
+    <row r="60" spans="2:38" x14ac:dyDescent="0.15">
       <c r="B60" s="4" t="s">
         <v>68</v>
       </c>

--- a/WDAY.xlsx
+++ b/WDAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165998C2-6351-2F41-A5E5-10A2994E9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C1E1C-43E2-4FF0-9A51-1172251F50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20560" activeTab="1" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
+    <workbookView xWindow="51390" yWindow="2730" windowWidth="24440" windowHeight="16540" xr2:uid="{2343338B-E596-4371-864B-486E83824219}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Price</t>
   </si>
@@ -269,9 +269,6 @@
     <t>FQ425</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>FQ126</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>FQ426</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -382,16 +382,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>49513</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>49513</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -406,8 +406,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15061789" y="0"/>
-          <a:ext cx="0" cy="8425465"/>
+          <a:off x="14991720" y="0"/>
+          <a:ext cx="0" cy="11215414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>57396</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>57396</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A2D2E3-E04C-4AE9-BF88-DE3EF51FD07C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21283913" y="0"/>
+          <a:ext cx="0" cy="8153947"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -732,71 +782,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D7CDB3-68AB-4CD4-9FC3-F425B5C54209}">
   <dimension ref="O2:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O2" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>244.41</v>
-      </c>
-    </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.15">
+        <v>241.74</v>
+      </c>
+    </row>
+    <row r="3" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O3" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="4">
-        <f>213+52</f>
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="15:17" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O4" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="4">
         <f>+P2*P3</f>
-        <v>64768.65</v>
-      </c>
-    </row>
-    <row r="5" spans="15:17" x14ac:dyDescent="0.15">
+        <v>65269.8</v>
+      </c>
+    </row>
+    <row r="5" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="P5" s="4">
-        <f>1635+5738</f>
-        <v>7373</v>
+        <v>7970</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="15:17" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="4">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="15:17" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="15:17" x14ac:dyDescent="0.25">
       <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="4">
         <f>+P4-P5+P6</f>
-        <v>60377.65</v>
+        <v>60284.800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -806,26 +854,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCB2AA-1F81-4F08-BB5B-5CC1179A46E9}">
-  <dimension ref="A1:AL60"/>
+  <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="W60" sqref="W60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.1640625" style="2"/>
-    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
-    <col min="9" max="19" width="9.1640625" style="2"/>
-    <col min="29" max="38" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.1796875" style="2"/>
+    <col min="8" max="8" width="9.6328125" style="2" customWidth="1"/>
+    <col min="9" max="19" width="9.1796875" style="2"/>
+    <col min="29" max="38" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -897,13 +945,32 @@
         <f t="shared" si="0"/>
         <v>45688</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="W1" s="3">
+        <v>45777</v>
+      </c>
+      <c r="X1" s="3">
+        <f>+T1+365</f>
+        <v>45869</v>
+      </c>
+      <c r="Y1" s="3">
+        <f>+U1+365</f>
+        <v>45961</v>
+      </c>
+      <c r="Z1" s="3">
+        <f>+V1+365</f>
+        <v>46053</v>
+      </c>
       <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="AG1" s="3">
+        <f>+V1</f>
+        <v>45688</v>
+      </c>
+      <c r="AH1" s="3">
+        <f>+Z1</f>
+        <v>46053</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -965,16 +1032,16 @@
         <v>76</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AC2" s="2" t="s">
@@ -1008,13 +1075,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
-        <v>931.69799999999998</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5">
         <v>931.69799999999998</v>
       </c>
@@ -1048,15 +1113,21 @@
       <c r="N3" s="5">
         <v>1495.402</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5">
+        <v>1528</v>
+      </c>
       <c r="P3" s="5">
         <v>1624</v>
       </c>
       <c r="Q3" s="5">
         <v>1691</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5">
+        <v>1760</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1815</v>
+      </c>
       <c r="T3" s="4">
         <v>1903</v>
       </c>
@@ -1064,11 +1135,26 @@
         <v>1959</v>
       </c>
       <c r="V3" s="4">
-        <v>2025</v>
+        <v>2040</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2059</v>
+      </c>
+      <c r="X3" s="4">
+        <f>+T3*1.1</f>
+        <v>2093.3000000000002</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>+U3*1.1</f>
+        <v>2154.9</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>+V3*1.1</f>
+        <v>2244</v>
       </c>
       <c r="AC3" s="5">
         <f>SUM(C3:F3)</f>
-        <v>3838.1940000000004</v>
+        <v>2906.4960000000001</v>
       </c>
       <c r="AD3" s="5">
         <f>SUM(G3:J3)</f>
@@ -1078,21 +1164,28 @@
         <f>SUM(K3:N3)</f>
         <v>5567.2060000000001</v>
       </c>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="AF3" s="5">
+        <f>SUM(O3:R3)</f>
+        <v>6603</v>
+      </c>
+      <c r="AG3" s="5">
+        <f>SUM(S3:V3)</f>
+        <v>7717</v>
+      </c>
+      <c r="AH3" s="5">
+        <f>SUM(W3:Z3)</f>
+        <v>8551.2000000000007</v>
+      </c>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5">
-        <v>130.26900000000001</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>130.26900000000001</v>
       </c>
@@ -1126,15 +1219,21 @@
       <c r="N4" s="5">
         <v>150.858</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5">
+        <v>156</v>
+      </c>
       <c r="P4" s="5">
         <v>163</v>
       </c>
       <c r="Q4" s="5">
         <v>175</v>
       </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="5">
+        <v>162</v>
+      </c>
+      <c r="S4" s="5">
+        <v>175</v>
+      </c>
       <c r="T4" s="4">
         <v>182</v>
       </c>
@@ -1142,12 +1241,26 @@
         <v>201</v>
       </c>
       <c r="V4" s="4">
-        <f>U4</f>
-        <v>201</v>
+        <v>171</v>
+      </c>
+      <c r="W4" s="4">
+        <v>181</v>
+      </c>
+      <c r="X4" s="4">
+        <f>+T4*1.1</f>
+        <v>200.20000000000002</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>+U4*1.1</f>
+        <v>221.10000000000002</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>+V4*1.1</f>
+        <v>188.10000000000002</v>
       </c>
       <c r="AC4" s="5">
         <f>SUM(C4:F4)</f>
-        <v>523.38400000000001</v>
+        <v>393.11500000000001</v>
       </c>
       <c r="AD4" s="5">
         <f>SUM(G4:J4)</f>
@@ -1157,21 +1270,30 @@
         <f>SUM(K4:N4)</f>
         <v>648.61200000000008</v>
       </c>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
+      <c r="AF4" s="5">
+        <f>SUM(O4:R4)</f>
+        <v>656</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>SUM(S4:V4)</f>
+        <v>729</v>
+      </c>
+      <c r="AH4" s="5">
+        <f>SUM(W4:Z4)</f>
+        <v>790.40000000000009</v>
+      </c>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:K5" si="1">+C3+C4</f>
-        <v>1061.9670000000001</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
@@ -1217,7 +1339,10 @@
         <f>N3+N4</f>
         <v>1646.26</v>
       </c>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7">
+        <f>+O3+O4</f>
+        <v>1684</v>
+      </c>
       <c r="P5" s="7">
         <f>+P3+P4</f>
         <v>1787</v>
@@ -1226,8 +1351,14 @@
         <f>+Q3+Q4</f>
         <v>1866</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="R5" s="6">
+        <f>+R3+R4</f>
+        <v>1922</v>
+      </c>
+      <c r="S5" s="6">
+        <f>+S3+S4</f>
+        <v>1990</v>
+      </c>
       <c r="T5" s="6">
         <f>+T3+T4</f>
         <v>2085</v>
@@ -1238,29 +1369,54 @@
       </c>
       <c r="V5" s="6">
         <f>+V3+V4</f>
-        <v>2226</v>
+        <v>2211</v>
+      </c>
+      <c r="W5" s="6">
+        <f>+W3+W4</f>
+        <v>2240</v>
+      </c>
+      <c r="X5" s="6">
+        <f>+X3+X4</f>
+        <v>2293.5</v>
+      </c>
+      <c r="Y5" s="6">
+        <f>+Y3+Y4</f>
+        <v>2376</v>
+      </c>
+      <c r="Z5" s="6">
+        <f>+Z3+Z4</f>
+        <v>2432.1</v>
       </c>
       <c r="AC5" s="7">
         <f>AC3+AC4</f>
-        <v>4361.5780000000004</v>
+        <v>3299.6109999999999</v>
       </c>
       <c r="AD5" s="7">
         <f>AD3+AD4</f>
         <v>5138.7979999999998</v>
       </c>
       <c r="AE5" s="7">
-        <f t="shared" ref="AE5" si="2">AE3+AE4</f>
+        <f t="shared" ref="AE5:AH5" si="2">AE3+AE4</f>
         <v>6215.8180000000002</v>
       </c>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="7">
+        <f t="shared" si="2"/>
+        <v>7259</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="2"/>
+        <v>8446</v>
+      </c>
+      <c r="AH5" s="7">
+        <f t="shared" si="2"/>
+        <v>9341.6</v>
+      </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1465,10 @@
         <f>274.146+179.333</f>
         <v>453.47900000000004</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="5">
+        <f>239+178</f>
+        <v>417</v>
+      </c>
       <c r="P6" s="5">
         <f>256+192</f>
         <v>448</v>
@@ -1318,8 +1477,14 @@
         <f>264+181</f>
         <v>445</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="5">
+        <f>272+189</f>
+        <v>461</v>
+      </c>
+      <c r="S6" s="5">
+        <f>290+199</f>
+        <v>489</v>
+      </c>
       <c r="T6" s="4">
         <f>304+207</f>
         <v>511</v>
@@ -1327,6 +1492,26 @@
       <c r="U6" s="4">
         <f>329+201</f>
         <v>530</v>
+      </c>
+      <c r="V6" s="4">
+        <f>343+197</f>
+        <v>540</v>
+      </c>
+      <c r="W6" s="4">
+        <f>350+187</f>
+        <v>537</v>
+      </c>
+      <c r="X6" s="4">
+        <f>+X5-X7</f>
+        <v>550.44000000000005</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>+Y5-Y7</f>
+        <v>570.24</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>+Z5-Z7</f>
+        <v>583.70399999999995</v>
       </c>
       <c r="AC6" s="5">
         <f>SUM(C6:F6)</f>
@@ -1348,7 +1533,7 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1582,10 @@
         <f>N5-N6</f>
         <v>1192.7809999999999</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5">
+        <f>+O5-O6</f>
+        <v>1267</v>
+      </c>
       <c r="P7" s="5">
         <f>+P5-P6</f>
         <v>1339</v>
@@ -1406,8 +1594,14 @@
         <f>+Q5-Q6</f>
         <v>1421</v>
       </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="R7" s="5">
+        <f>+R5-R6</f>
+        <v>1461</v>
+      </c>
+      <c r="S7" s="4">
+        <f>+S5-S6</f>
+        <v>1501</v>
+      </c>
       <c r="T7" s="4">
         <f>+T5-T6</f>
         <v>1574</v>
@@ -1416,9 +1610,29 @@
         <f>+U5-U6</f>
         <v>1630</v>
       </c>
+      <c r="V7" s="4">
+        <f>+V5-V6</f>
+        <v>1671</v>
+      </c>
+      <c r="W7" s="4">
+        <f>+W5-W6</f>
+        <v>1703</v>
+      </c>
+      <c r="X7" s="4">
+        <f>+X5*0.76</f>
+        <v>1743.06</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>+Y5*0.76</f>
+        <v>1805.76</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>+Z5*0.76</f>
+        <v>1848.396</v>
+      </c>
       <c r="AC7" s="5">
         <f>AC5-AC6</f>
-        <v>3469.0760000000005</v>
+        <v>2407.1089999999999</v>
       </c>
       <c r="AD7" s="5">
         <f>AD5-AD6</f>
@@ -1436,7 +1650,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1474,20 +1688,44 @@
       <c r="N8" s="5">
         <v>615.58900000000006</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="5">
+        <v>600</v>
+      </c>
       <c r="P8" s="5">
         <v>610</v>
       </c>
       <c r="Q8" s="5">
         <v>619</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="R8" s="5">
+        <v>635</v>
+      </c>
+      <c r="S8" s="5">
+        <v>656</v>
+      </c>
       <c r="T8" s="4">
         <v>649</v>
       </c>
       <c r="U8" s="4">
         <v>647</v>
+      </c>
+      <c r="V8" s="4">
+        <v>673</v>
+      </c>
+      <c r="W8" s="4">
+        <v>663</v>
+      </c>
+      <c r="X8" s="4">
+        <f>+T8*1.03</f>
+        <v>668.47</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" ref="Y8:Y10" si="4">+U8*1.03</f>
+        <v>666.41</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" ref="Z8:Z10" si="5">+V8*1.03</f>
+        <v>693.19</v>
       </c>
       <c r="AC8" s="5">
         <f>SUM(C8:F8)</f>
@@ -1509,7 +1747,7 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1547,20 +1785,44 @@
       <c r="N9" s="5">
         <v>489.89499999999998</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="5">
+        <v>519</v>
+      </c>
       <c r="P9" s="5">
         <v>524</v>
       </c>
       <c r="Q9" s="5">
         <v>538</v>
       </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="R9" s="5">
+        <v>558</v>
+      </c>
+      <c r="S9" s="5">
+        <v>573</v>
+      </c>
       <c r="T9" s="4">
         <v>611</v>
       </c>
       <c r="U9" s="4">
         <v>620</v>
+      </c>
+      <c r="V9" s="4">
+        <v>629</v>
+      </c>
+      <c r="W9" s="4">
+        <v>623</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" ref="X9:X10" si="6">+T9*1.03</f>
+        <v>629.33000000000004</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="4"/>
+        <v>638.6</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="5"/>
+        <v>647.87</v>
       </c>
       <c r="AC9" s="5">
         <f>SUM(C9:F9)</f>
@@ -1582,7 +1844,7 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1620,20 +1882,44 @@
       <c r="N10" s="5">
         <v>176.255</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="5">
+        <v>168</v>
+      </c>
       <c r="P10" s="5">
         <v>169</v>
       </c>
       <c r="Q10" s="5">
         <v>176</v>
       </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="R10" s="5">
+        <v>189</v>
+      </c>
+      <c r="S10" s="5">
+        <v>200</v>
+      </c>
       <c r="T10" s="4">
         <v>203</v>
       </c>
       <c r="U10" s="4">
         <v>198</v>
+      </c>
+      <c r="V10" s="4">
+        <v>219</v>
+      </c>
+      <c r="W10" s="4">
+        <v>212</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="6"/>
+        <v>209.09</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="4"/>
+        <v>203.94</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="5"/>
+        <v>225.57</v>
       </c>
       <c r="AC10" s="5">
         <f>SUM(C10:F10)</f>
@@ -1655,102 +1941,114 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:K11" si="4">SUM(D8:D10)</f>
+        <f t="shared" ref="D11:K11" si="7">SUM(D8:D10)</f>
         <v>794.44399999999996</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>824.85599999999999</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>891.95100000000002</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>880.29300000000001</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>915.95999999999992</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>943.59400000000005</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1087.306</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1104.6789999999999</v>
       </c>
       <c r="L11" s="5">
-        <f t="shared" ref="L11:N11" si="5">SUM(L8:L10)</f>
+        <f t="shared" ref="L11:N11" si="8">SUM(L8:L10)</f>
         <v>1146.7910000000002</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1189.6310000000001</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1281.739</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:V11" si="6">SUM(O8:O10)</f>
-        <v>0</v>
+        <f t="shared" ref="O11:Z11" si="9">SUM(O8:O10)</f>
+        <v>1287</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1303</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1333</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1382</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1429</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1463</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1465</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+        <f t="shared" si="9"/>
+        <v>1521</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="9"/>
+        <v>1498</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="9"/>
+        <v>1506.89</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="9"/>
+        <v>1508.95</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="9"/>
+        <v>1566.6299999999999</v>
+      </c>
       <c r="AA11" s="5"/>
       <c r="AC11" s="5">
-        <f t="shared" ref="AC11:AE11" si="7">SUM(AC8:AC10)</f>
+        <f t="shared" ref="AC11:AE11" si="10">SUM(AC8:AC10)</f>
         <v>2511.2510000000002</v>
       </c>
       <c r="AD11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3827.1530000000007</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4722.84</v>
       </c>
       <c r="AF11" s="5"/>
@@ -1761,102 +2059,114 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <f t="shared" ref="D12:K12" si="8">D7-D11</f>
+        <f t="shared" ref="D12:K12" si="11">D7-D11</f>
         <v>-16.753999999999905</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-14.076999999999998</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-73.311000000000035</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-38.312999999999874</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1.1200000000000045</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>23.945000000000164</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-100.96199999999999</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-72.843000000000075</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12:N12" si="9">L7-L11</f>
+        <f t="shared" ref="L12:N12" si="12">L7-L11</f>
         <v>-34.078000000000202</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-26.32100000000014</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-88.958000000000084</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:V12" si="10">O7-O11</f>
-        <v>0</v>
+        <f t="shared" ref="O12:Z12" si="13">O7-O11</f>
+        <v>-20</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>72</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>165</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="13"/>
+        <v>236.16999999999985</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="13"/>
+        <v>296.80999999999995</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="13"/>
+        <v>281.76600000000008</v>
+      </c>
       <c r="AA12" s="5"/>
       <c r="AC12" s="5">
-        <f t="shared" ref="AC12:AE12" si="11">AC7-AC11</f>
-        <v>957.82500000000027</v>
+        <f t="shared" ref="AC12:AE12" si="14">AC7-AC11</f>
+        <v>-104.14200000000028</v>
       </c>
       <c r="AD12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-116.45000000000118</v>
       </c>
       <c r="AE12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-222.19999999999982</v>
       </c>
       <c r="AF12" s="5"/>
@@ -1867,7 +2177,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1905,28 +2215,55 @@
       <c r="N13" s="5">
         <v>11.039</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="5">
+        <v>27</v>
+      </c>
       <c r="P13" s="5">
         <v>46</v>
       </c>
       <c r="Q13" s="5">
         <v>41</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="R13" s="5">
+        <v>59</v>
+      </c>
+      <c r="S13" s="5">
+        <v>59</v>
+      </c>
+      <c r="T13" s="4">
+        <v>57</v>
+      </c>
       <c r="U13" s="4">
         <v>62</v>
+      </c>
+      <c r="V13" s="4">
+        <v>45</v>
+      </c>
+      <c r="W13" s="4">
+        <v>64</v>
+      </c>
+      <c r="X13" s="4">
+        <f>+W13</f>
+        <v>64</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>+X13</f>
+        <v>64</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>+Y13</f>
+        <v>64</v>
       </c>
       <c r="AC13" s="5">
         <f>SUM(C13:F13)</f>
         <v>-15.561999999999999</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" ref="AD13" si="12">SUM(G13:J13)</f>
+        <f t="shared" ref="AD13" si="15">SUM(G13:J13)</f>
         <v>29.646999999999998</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" ref="AE13" si="13">SUM(K13:N13)</f>
+        <f t="shared" ref="AE13" si="16">SUM(K13:N13)</f>
         <v>-37.75</v>
       </c>
       <c r="AF13" s="5"/>
@@ -1937,41 +2274,41 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <f t="shared" ref="D14:K14" si="14">+D12+D13</f>
+        <f t="shared" ref="D14:K14" si="17">+D12+D13</f>
         <v>-28.206999999999905</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-22.922999999999998</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-68.574000000000041</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-47.363999999999876</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.1200000000000045</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>45.502000000000166</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-83.820999999999998</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-93.006000000000071</v>
       </c>
       <c r="L14" s="5">
@@ -1987,45 +2324,57 @@
         <v>-77.919000000000082</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ref="O14:V14" si="15">O12+O13</f>
-        <v>0</v>
+        <f t="shared" ref="O14:Z14" si="18">O12+O13</f>
+        <v>7</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>82</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>129</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>138</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>131</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="15"/>
-        <v>111</v>
+        <f t="shared" si="18"/>
+        <v>168</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>227</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+        <f t="shared" si="18"/>
+        <v>195</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="18"/>
+        <v>269</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="18"/>
+        <v>300.16999999999985</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="18"/>
+        <v>360.80999999999995</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="18"/>
+        <v>345.76600000000008</v>
+      </c>
       <c r="AA14" s="5"/>
       <c r="AC14" s="5">
         <f>AC12+AC13</f>
-        <v>942.26300000000026</v>
+        <v>-119.70400000000028</v>
       </c>
       <c r="AD14" s="5">
         <f>AD12+AD13</f>
@@ -2043,7 +2392,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
@@ -2081,28 +2430,55 @@
       <c r="N15" s="5">
         <v>0</v>
       </c>
-      <c r="O15" s="5"/>
+      <c r="O15" s="5">
+        <v>7</v>
+      </c>
       <c r="P15" s="5">
         <v>3</v>
       </c>
       <c r="Q15" s="5">
         <v>15</v>
       </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>16</v>
+      </c>
+      <c r="T15" s="4">
+        <v>36</v>
+      </c>
       <c r="U15" s="4">
         <v>34</v>
+      </c>
+      <c r="V15" s="4">
+        <v>26</v>
+      </c>
+      <c r="W15" s="4">
+        <v>35</v>
+      </c>
+      <c r="X15" s="4">
+        <f>+X14*0.1</f>
+        <v>30.016999999999985</v>
+      </c>
+      <c r="Y15" s="4">
+        <f>+Y14*0.1</f>
+        <v>36.080999999999996</v>
+      </c>
+      <c r="Z15" s="4">
+        <f>+Z14*0.1</f>
+        <v>34.576600000000006</v>
       </c>
       <c r="AC15" s="5">
         <f>SUM(C15:F15)</f>
         <v>4.359</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" ref="AD15" si="16">SUM(G15:J15)</f>
+        <f t="shared" ref="AD15" si="19">SUM(G15:J15)</f>
         <v>7.9449999999999994</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" ref="AE15" si="17">SUM(K15:N15)</f>
+        <f t="shared" ref="AE15" si="20">SUM(K15:N15)</f>
         <v>61.730000000000004</v>
       </c>
       <c r="AF15" s="5"/>
@@ -2113,95 +2489,107 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:K16" si="18">+D14-D15</f>
+        <f t="shared" ref="D16:K16" si="21">+D14-D15</f>
         <v>-28.015999999999906</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-24.34</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-71.707000000000036</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-46.521999999999878</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2.7509999999999954</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>43.412000000000162</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-94.388999999999996</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-102.17300000000007</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:V16" si="19">+L14-L15</f>
+        <f t="shared" ref="L16:Z16" si="22">+L14-L15</f>
         <v>-66.867000000000203</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-74.721000000000146</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-77.919000000000082</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>79</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>114</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>138</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>115</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="19"/>
-        <v>111</v>
+        <f t="shared" si="22"/>
+        <v>132</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>193</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+        <f t="shared" si="22"/>
+        <v>169</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="22"/>
+        <v>234</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="22"/>
+        <v>270.15299999999985</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="22"/>
+        <v>324.72899999999993</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" si="22"/>
+        <v>311.18940000000009</v>
+      </c>
       <c r="AA16" s="5"/>
       <c r="AC16" s="5">
         <f>AC14-AC15</f>
-        <v>937.90400000000022</v>
+        <v>-124.06300000000027</v>
       </c>
       <c r="AD16" s="5">
         <f>AD14-AD15</f>
@@ -2219,94 +2607,106 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17:K17" si="20">+D16/D18</f>
+        <f t="shared" ref="D17:K17" si="23">+D16/D18</f>
         <v>-0.11871085838255567</v>
       </c>
       <c r="E17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.10224356147005574</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.29754929624219906</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.19086810071428814</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.0580118146575578E-2</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.17040351703564202</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.37749107153569583</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.40586232785022852</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" ref="L17:V17" si="21">+L16/L18</f>
+        <f t="shared" ref="L17:Z17" si="24">+L16/L18</f>
         <v>-0.2614514785750322</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.29216079576779219</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.30280737752698983</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.29875016544708527</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.42796487684747553</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.51331074270113042</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>0.42775895225094196</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="21"/>
-        <v>0.41425793714475512</v>
+        <f t="shared" si="24"/>
+        <v>0.49263106038835747</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.71867703845480724</v>
       </c>
       <c r="V17" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
+        <f t="shared" si="24"/>
+        <v>0.62590969863744272</v>
+      </c>
+      <c r="W17" s="8">
+        <f t="shared" si="24"/>
+        <v>0.86571758368603313</v>
+      </c>
+      <c r="X17" s="8">
+        <f t="shared" si="24"/>
+        <v>0.99947095036552469</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" si="24"/>
+        <v>1.2013829283452213</v>
+      </c>
+      <c r="Z17" s="8">
+        <f t="shared" si="24"/>
+        <v>1.1512911770799423</v>
+      </c>
       <c r="AA17" s="8"/>
       <c r="AC17" s="8">
         <f>AC16/AC18</f>
-        <v>3.9349698553813504</v>
+        <v>-0.52050547302088213</v>
       </c>
       <c r="AD17" s="8">
         <f>AD16/AD18</f>
@@ -2317,7 +2717,7 @@
         <v>-1.2607844040248051</v>
       </c>
     </row>
-    <row r="18" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
@@ -2366,12 +2766,11 @@
         <v>266.37700000000001</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" ref="Q18:V18" si="22">+Q18</f>
-        <v>266.37700000000001</v>
+        <v>268.84300000000002</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="22"/>
-        <v>266.37700000000001</v>
+        <f t="shared" ref="S18" si="25">+R18</f>
+        <v>268.84300000000002</v>
       </c>
       <c r="T18" s="5">
         <v>267.94900000000001</v>
@@ -2380,13 +2779,23 @@
         <v>268.54899999999998</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="22"/>
-        <v>268.54899999999998</v>
-      </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+        <v>270.00700000000001</v>
+      </c>
+      <c r="W18" s="5">
+        <v>270.29599999999999</v>
+      </c>
+      <c r="X18" s="5">
+        <f>+W18</f>
+        <v>270.29599999999999</v>
+      </c>
+      <c r="Y18" s="5">
+        <f>+X18</f>
+        <v>270.29599999999999</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>+Y18</f>
+        <v>270.29599999999999</v>
+      </c>
       <c r="AA18" s="5"/>
       <c r="AC18" s="5">
         <f>AVERAGE(C18:F18)</f>
@@ -2408,7 +2817,7 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2437,7 +2846,7 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2459,122 +2868,225 @@
         <v>0.21601171351720105</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" ref="K20" si="23">+K5/G5-1</f>
+        <f t="shared" ref="K20" si="26">+K5/G5-1</f>
         <v>0.22095039032946295</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" ref="L20" si="24">+L5/H5-1</f>
+        <f t="shared" ref="L20" si="27">+L5/H5-1</f>
         <v>0.21853818072758524</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20" si="25">+M5/I5-1</f>
+        <f t="shared" ref="M20" si="28">+M5/I5-1</f>
         <v>0.20481245992693231</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" ref="N20:O20" si="26">+N5/J5-1</f>
+        <f t="shared" ref="N20:O20" si="29">+N5/J5-1</f>
         <v>0.19628729904857134</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="26"/>
-        <v>-1</v>
+        <f t="shared" si="29"/>
+        <v>0.17379973052792419</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" ref="P20" si="27">+P5/L5-1</f>
+        <f t="shared" ref="P20" si="30">+P5/L5-1</f>
         <v>0.16356447918280925</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" ref="Q20" si="28">+Q5/M5-1</f>
+        <f t="shared" ref="Q20" si="31">+Q5/M5-1</f>
         <v>0.16690419566469439</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" ref="R20" si="29">+R5/N5-1</f>
-        <v>-1</v>
-      </c>
-      <c r="S20" s="10" t="e">
-        <f t="shared" ref="S20" si="30">+S5/O5-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="R20" si="32">+R5/N5-1</f>
+        <v>0.16749480640968017</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" ref="S20" si="33">+S5/O5-1</f>
+        <v>0.18171021377672214</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" ref="T20" si="31">+T5/P5-1</f>
+        <f t="shared" ref="T20" si="34">+T5/P5-1</f>
         <v>0.16675993284834911</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" ref="U20" si="32">+U5/Q5-1</f>
+        <f t="shared" ref="U20" si="35">+U5/Q5-1</f>
         <v>0.157556270096463</v>
       </c>
-      <c r="V20" s="10" t="e">
-        <f t="shared" ref="V20" si="33">+V5/R5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
+      <c r="V20" s="10">
+        <f t="shared" ref="V20:W20" si="36">+V5/R5-1</f>
+        <v>0.15036420395421435</v>
+      </c>
+      <c r="W20" s="10">
+        <f t="shared" si="36"/>
+        <v>0.12562814070351758</v>
+      </c>
+      <c r="X20" s="10">
+        <f t="shared" ref="X20" si="37">+X5/T5-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y20" s="10">
+        <f t="shared" ref="Y20" si="38">+Y5/U5-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" ref="Z20" si="39">+Z5/V5-1</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
       <c r="AA20" s="10"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="10">
         <f>AD5/AC5-1</f>
-        <v>0.17819697366411869</v>
+        <v>0.55739509899803341</v>
       </c>
       <c r="AE20" s="10">
         <f>AE5/AD5-1</f>
         <v>0.2095859771098223</v>
       </c>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
+      <c r="AF20" s="10">
+        <f>AF5/AE5-1</f>
+        <v>0.16782698592526346</v>
+      </c>
+      <c r="AG20" s="10">
+        <f>AG5/AF5-1</f>
+        <v>0.16352114616338342</v>
+      </c>
+      <c r="AH20" s="10">
+        <f>AH5/AG5-1</f>
+        <v>0.1060383613544873</v>
+      </c>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
+    <row r="21" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10">
+        <f t="shared" ref="C21:W21" si="40">+D7/D5</f>
+        <v>0.73231089101638747</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.73309975044305398</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.72338214554592983</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.71655859877977901</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.72585552869376313</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.72897308219998602</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.71674632177952691</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.71922138880582598</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.72451780768043716</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.72747659156414557</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.72453986612078281</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.75237529691211402</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.7493005036373811</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.76152197213290462</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.76014568158168572</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.75427135678391954</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.75491606714628301</v>
+      </c>
+      <c r="U21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.75462962962962965</v>
+      </c>
+      <c r="V21" s="10">
+        <f t="shared" si="40"/>
+        <v>0.75576662143826323</v>
+      </c>
+      <c r="W21" s="10">
+        <f>+W7/W5</f>
+        <v>0.76026785714285716</v>
+      </c>
+      <c r="X21" s="10">
+        <f t="shared" ref="X21:Z21" si="41">+X7/X5</f>
+        <v>0.76</v>
+      </c>
+      <c r="Y21" s="10">
+        <f t="shared" si="41"/>
+        <v>0.76</v>
+      </c>
+      <c r="Z21" s="10">
+        <f t="shared" si="41"/>
+        <v>0.76</v>
+      </c>
+      <c r="AA21" s="10"/>
+      <c r="AC21" s="10">
+        <f t="shared" ref="AC21:AE21" si="42">+AC7/AC5</f>
+        <v>0.72951296380088437</v>
+      </c>
+      <c r="AD21" s="10">
+        <f t="shared" si="42"/>
+        <v>0.72209551727855414</v>
+      </c>
+      <c r="AE21" s="10">
+        <f t="shared" si="42"/>
+        <v>0.72406238406594281</v>
+      </c>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="5">
-        <f>K23-K38</f>
+      <c r="K23" s="5">
+        <f>K24-K39</f>
         <v>2134.1609999999991</v>
       </c>
-      <c r="N22" s="5">
-        <f>N23-N38</f>
+      <c r="N23" s="5">
+        <f>N24-N39</f>
         <v>3145.4599999999991</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5">
-        <f>T23-T38</f>
-        <v>4397.0659999999998</v>
-      </c>
-      <c r="U22" s="5">
-        <f>U23-U38</f>
-        <v>4174</v>
-      </c>
-    </row>
-    <row r="23" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <f>2776.336+3479.019</f>
-        <v>6255.3549999999996</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5">
-        <f>1886.311+4235.083</f>
-        <v>6121.3939999999993</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -2582,27 +3094,25 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5">
-        <f>1635+5738</f>
-        <v>7373</v>
-      </c>
-      <c r="U23" s="4">
-        <f>1311+5846</f>
-        <v>7157</v>
-      </c>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-    </row>
-    <row r="24" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <f>T24-T39</f>
+        <v>4397.0659999999998</v>
+      </c>
+      <c r="U23" s="5">
+        <f>U24-U39</f>
+        <v>4174</v>
+      </c>
+      <c r="V23" s="5">
+        <f>V24-V39</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <f>W24-W39</f>
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2613,12 +3123,14 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5">
-        <v>778.07600000000002</v>
+        <f>2776.336+3479.019</f>
+        <v>6255.3549999999996</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5">
-        <v>1570.086</v>
+        <f>1886.311+4235.083</f>
+        <v>6121.3939999999993</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -2626,10 +3138,16 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5">
-        <v>1292</v>
+        <f>1635+5738</f>
+        <v>7373</v>
       </c>
       <c r="U24" s="4">
-        <v>1404</v>
+        <f>1311+5846</f>
+        <v>7157</v>
+      </c>
+      <c r="W24" s="4">
+        <f>6998+972</f>
+        <v>7970</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -2642,9 +3160,9 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2655,14 +3173,12 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5">
-        <f>156.806+339.712</f>
-        <v>496.51800000000003</v>
+        <v>778.07600000000002</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5">
-        <f>191.054+420.988</f>
-        <v>612.04200000000003</v>
+        <v>1570.086</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -2670,12 +3186,13 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5">
-        <f>237+1022</f>
-        <v>1259</v>
+        <v>1292</v>
       </c>
       <c r="U25" s="4">
-        <f>244+1031+490</f>
-        <v>1765</v>
+        <v>1404</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1363</v>
       </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -2688,9 +3205,9 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2701,12 +3218,14 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5">
-        <v>252.989</v>
+        <f>156.806+339.712</f>
+        <v>496.51800000000003</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5">
-        <v>225.69</v>
+        <f>191.054+420.988</f>
+        <v>612.04200000000003</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -2714,10 +3233,16 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5">
-        <v>298</v>
+        <f>237+1022</f>
+        <v>1259</v>
       </c>
       <c r="U26" s="4">
-        <v>273</v>
+        <f>244+1031+490</f>
+        <v>1765</v>
+      </c>
+      <c r="W26" s="4">
+        <f>544+268</f>
+        <v>812</v>
       </c>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
@@ -2730,9 +3255,9 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2743,12 +3268,12 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5">
-        <v>1186.0039999999999</v>
+        <v>252.989</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
-        <v>1201.2539999999999</v>
+        <v>225.69</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -2756,10 +3281,13 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5">
-        <v>1259</v>
+        <v>298</v>
       </c>
       <c r="U27" s="4">
-        <v>1263</v>
+        <v>273</v>
+      </c>
+      <c r="W27" s="4">
+        <v>362</v>
       </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -2772,9 +3300,9 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2785,13 +3313,12 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5">
-        <v>252.23599999999999</v>
+        <v>1186.0039999999999</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5">
-        <f>249.278</f>
-        <v>249.27799999999999</v>
+        <v>1201.2539999999999</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -2799,10 +3326,13 @@
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5">
-        <v>339</v>
+        <v>1259</v>
       </c>
       <c r="U28" s="4">
-        <v>335</v>
+        <v>1263</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1140</v>
       </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -2815,9 +3345,9 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2828,14 +3358,13 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5">
-        <f>369.387+2840.044</f>
-        <v>3209.431</v>
+        <v>252.23599999999999</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5">
-        <f>2840.044+305.465</f>
-        <v>3145.509</v>
+        <f>249.278</f>
+        <v>249.27799999999999</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -2843,12 +3372,13 @@
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5">
-        <f>3257+331</f>
-        <v>3588</v>
+        <v>339</v>
       </c>
       <c r="U29" s="4">
-        <f>3479+383</f>
-        <v>3862</v>
+        <v>335</v>
+      </c>
+      <c r="W29" s="4">
+        <v>355</v>
       </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -2861,9 +3391,9 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2874,12 +3404,14 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5">
-        <v>368.49700000000001</v>
+        <f>369.387+2840.044</f>
+        <v>3209.431</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5">
-        <v>360.98500000000001</v>
+        <f>2840.044+305.465</f>
+        <v>3145.509</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -2887,10 +3419,16 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5">
-        <v>339</v>
+        <f>3257+331</f>
+        <v>3588</v>
       </c>
       <c r="U30" s="4">
-        <v>365</v>
+        <f>3479+383</f>
+        <v>3862</v>
+      </c>
+      <c r="W30" s="4">
+        <f>340+3478</f>
+        <v>3818</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -2903,9 +3441,9 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2916,14 +3454,12 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5">
-        <f>SUM(K23:K30)</f>
-        <v>12799.106</v>
+        <v>368.49700000000001</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5">
-        <f>SUM(N23:N30)</f>
-        <v>13486.238000000001</v>
+        <v>360.98500000000001</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -2931,12 +3467,14 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5">
-        <f>SUM(T23:T30)</f>
-        <v>15747</v>
-      </c>
-      <c r="U31" s="5">
-        <f>SUM(U23:U30)</f>
-        <v>16424</v>
+        <v>339</v>
+      </c>
+      <c r="U31" s="4">
+        <v>365</v>
+      </c>
+      <c r="W31" s="4">
+        <f>1013+379</f>
+        <v>1392</v>
       </c>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -2949,54 +3487,66 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
+    <row r="32" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <f>SUM(K24:K31)</f>
+        <v>12799.106</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
+        <f>SUM(N24:N31)</f>
+        <v>13486.238000000001</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5">
+        <f>SUM(T24:T31)</f>
+        <v>15747</v>
+      </c>
+      <c r="U32" s="5">
+        <f>SUM(U24:U31)</f>
+        <v>16424</v>
+      </c>
+      <c r="V32" s="5">
+        <f>SUM(V24:V31)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <f>SUM(W24:W31)</f>
+        <v>17212</v>
+      </c>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <v>123.361</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5">
-        <v>153.751</v>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5">
-        <v>153.751</v>
-      </c>
-      <c r="U33" s="4">
-        <v>74</v>
-      </c>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-    </row>
-    <row r="34" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3007,12 +3557,12 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5">
-        <v>246.93899999999999</v>
+        <v>123.361</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5">
-        <v>260.13099999999997</v>
+        <v>153.751</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -3020,10 +3570,13 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5">
-        <v>260.13099999999997</v>
+        <v>153.751</v>
       </c>
       <c r="U34" s="4">
-        <v>323</v>
+        <v>74</v>
+      </c>
+      <c r="W34" s="4">
+        <v>92</v>
       </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -3036,9 +3589,9 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3049,12 +3602,12 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5">
-        <v>362.26900000000001</v>
+        <v>246.93899999999999</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5">
-        <v>563.548</v>
+        <v>260.13099999999997</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -3062,10 +3615,13 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5">
-        <v>563.548</v>
+        <v>260.13099999999997</v>
       </c>
       <c r="U35" s="4">
-        <v>476</v>
+        <v>323</v>
+      </c>
+      <c r="W35" s="4">
+        <v>271</v>
       </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -3078,9 +3634,9 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3089,19 +3645,14 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="5">
-        <f>3110.947+71.533</f>
-        <v>3182.48</v>
-      </c>
+      <c r="J36" s="5"/>
       <c r="K36" s="5">
-        <f>2820.119+59.308</f>
-        <v>2879.4270000000001</v>
+        <v>362.26900000000001</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5">
-        <f>3559.393+74.54</f>
-        <v>3633.933</v>
+        <v>563.548</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -3109,12 +3660,13 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5">
-        <f>3559.393+74.54</f>
-        <v>3633.933</v>
+        <v>563.548</v>
       </c>
       <c r="U36" s="4">
-        <f>3447+64</f>
-        <v>3511</v>
+        <v>476</v>
+      </c>
+      <c r="W36" s="4">
+        <v>548</v>
       </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3127,9 +3679,9 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3138,16 +3690,19 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5">
+        <f>3110.947+71.533</f>
+        <v>3182.48</v>
+      </c>
       <c r="K37" s="5">
-        <f>80.573+182.237</f>
-        <v>262.81</v>
+        <f>2820.119+59.308</f>
+        <v>2879.4270000000001</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5">
-        <f>91.343+181.799</f>
-        <v>273.142</v>
+        <f>3559.393+74.54</f>
+        <v>3633.933</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -3155,12 +3710,16 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5">
-        <f>91.343+181.799</f>
-        <v>273.142</v>
+        <f>3559.393+74.54</f>
+        <v>3633.933</v>
       </c>
       <c r="U37" s="4">
-        <f>102+278</f>
-        <v>380</v>
+        <f>3447+64</f>
+        <v>3511</v>
+      </c>
+      <c r="W37" s="4">
+        <f>3812+65</f>
+        <v>3877</v>
       </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -3173,9 +3732,9 @@
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -3186,14 +3745,14 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5">
-        <f>1148.126+2973.068</f>
-        <v>4121.1940000000004</v>
+        <f>80.573+182.237</f>
+        <v>262.81</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5">
-        <f>2975.934</f>
-        <v>2975.9340000000002</v>
+        <f>91.343+181.799</f>
+        <v>273.142</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -3201,11 +3760,16 @@
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5">
-        <f>2975.934</f>
-        <v>2975.9340000000002</v>
+        <f>91.343+181.799</f>
+        <v>273.142</v>
       </c>
       <c r="U38" s="4">
-        <v>2983</v>
+        <f>102+278</f>
+        <v>380</v>
+      </c>
+      <c r="W38" s="4">
+        <f>98+310</f>
+        <v>408</v>
       </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -3218,9 +3782,9 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -3231,12 +3795,14 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5">
-        <v>22.298999999999999</v>
+        <f>1148.126+2973.068</f>
+        <v>4121.1940000000004</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5">
-        <v>40.231000000000002</v>
+        <f>2975.934</f>
+        <v>2975.9340000000002</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -3244,10 +3810,14 @@
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5">
-        <v>40.231000000000002</v>
+        <f>2975.934</f>
+        <v>2975.9340000000002</v>
       </c>
       <c r="U39" s="4">
-        <v>53</v>
+        <v>2983</v>
+      </c>
+      <c r="W39" s="4">
+        <v>2985</v>
       </c>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -3260,9 +3830,9 @@
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -3273,12 +3843,12 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5">
-        <v>4780.8069999999998</v>
+        <v>22.298999999999999</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5">
-        <v>5585.5680000000002</v>
+        <v>40.231000000000002</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -3286,10 +3856,13 @@
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5">
-        <v>5585.5680000000002</v>
+        <v>40.231000000000002</v>
       </c>
       <c r="U40" s="4">
-        <v>8624</v>
+        <v>53</v>
+      </c>
+      <c r="W40" s="4">
+        <v>112</v>
       </c>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
@@ -3302,9 +3875,9 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
     </row>
-    <row r="41" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -3315,14 +3888,12 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5">
-        <f>SUM(K33:K40)</f>
-        <v>12799.106</v>
+        <v>4780.8069999999998</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5">
-        <f>SUM(N33:N40)</f>
-        <v>13486.238000000001</v>
+        <v>5585.5680000000002</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -3330,12 +3901,13 @@
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5">
-        <f>SUM(T33:T40)</f>
-        <v>13486.238000000001</v>
-      </c>
-      <c r="U41" s="5">
-        <f>SUM(U33:U40)</f>
-        <v>16424</v>
+        <v>5585.5680000000002</v>
+      </c>
+      <c r="U41" s="4">
+        <v>8624</v>
+      </c>
+      <c r="W41" s="4">
+        <v>8919</v>
       </c>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -3348,73 +3920,91 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="43" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="4" t="s">
+    <row r="42" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <f>SUM(K34:K41)</f>
+        <v>12799.106</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
+        <f>SUM(N34:N41)</f>
+        <v>13486.238000000001</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5">
+        <f>SUM(T34:T41)</f>
+        <v>13486.238000000001</v>
+      </c>
+      <c r="U42" s="5">
+        <f>SUM(U34:U41)</f>
+        <v>16424</v>
+      </c>
+      <c r="V42" s="5">
+        <f>SUM(V34:V41)</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="5">
+        <f>SUM(W34:W41)</f>
+        <v>17212</v>
+      </c>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="44" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5">
-        <f>+G16</f>
-        <v>-46.521999999999878</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5">
-        <f>+K16</f>
-        <v>-102.17300000000007</v>
-      </c>
-      <c r="L43" s="5">
-        <f>+L16</f>
-        <v>-66.867000000000203</v>
-      </c>
-      <c r="M43" s="5">
-        <f>+M16</f>
-        <v>-74.721000000000146</v>
-      </c>
-      <c r="N43" s="5">
-        <f>+N16</f>
-        <v>-77.919000000000082</v>
-      </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-    </row>
-    <row r="44" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
-        <v>-46.521999999999998</v>
+        <f>+G16</f>
+        <v>-46.521999999999878</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5">
-        <v>-102.173</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+        <f>+K16</f>
+        <v>-102.17300000000007</v>
+      </c>
+      <c r="L44" s="5">
+        <f>+L16</f>
+        <v>-66.867000000000203</v>
+      </c>
+      <c r="M44" s="5">
+        <f>+M16</f>
+        <v>-74.721000000000146</v>
+      </c>
+      <c r="N44" s="5">
+        <f>+N16</f>
+        <v>-77.919000000000082</v>
+      </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
@@ -3431,22 +4021,22 @@
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
     </row>
-    <row r="45" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5">
-        <v>82.462999999999994</v>
+        <v>-46.521999999999998</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5">
-        <v>89.846000000000004</v>
+        <v>-102.173</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -3467,22 +4057,22 @@
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
     </row>
-    <row r="46" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5">
-        <v>264.63499999999999</v>
+        <v>82.462999999999994</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5">
-        <v>311.50599999999997</v>
+        <v>89.846000000000004</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -3503,22 +4093,22 @@
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
     </row>
-    <row r="47" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5">
-        <v>31.614000000000001</v>
+        <v>264.63499999999999</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5">
-        <v>39.427</v>
+        <v>311.50599999999997</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -3539,22 +4129,22 @@
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
     </row>
-    <row r="48" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5">
-        <v>22.23</v>
+        <v>31.614000000000001</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5">
-        <v>22.047999999999998</v>
+        <v>39.427</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -3575,22 +4165,22 @@
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
     </row>
-    <row r="49" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5">
-        <v>6.0179999999999998</v>
+        <v>22.23</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5">
-        <v>8.08</v>
+        <v>22.047999999999998</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -3611,22 +4201,22 @@
       <c r="AK49" s="5"/>
       <c r="AL49" s="5"/>
     </row>
-    <row r="50" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5">
-        <v>-1.6240000000000001</v>
+        <v>6.0179999999999998</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5">
-        <v>0.70899999999999996</v>
+        <v>8.08</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -3647,22 +4237,22 @@
       <c r="AK50" s="5"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5">
-        <v>392.11900000000003</v>
+        <v>-1.6240000000000001</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5">
-        <v>462.964</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -3683,22 +4273,22 @@
       <c r="AK51" s="5"/>
       <c r="AL51" s="5"/>
     </row>
-    <row r="52" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5">
-        <v>-26.27</v>
+        <v>392.11900000000003</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5">
-        <v>-41.728999999999999</v>
+        <v>462.964</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -3719,22 +4309,22 @@
       <c r="AK52" s="5"/>
       <c r="AL52" s="5"/>
     </row>
-    <row r="53" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <v>-35.566000000000003</v>
+        <v>-26.27</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5">
-        <v>-23.997</v>
+        <v>-41.728999999999999</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -3755,22 +4345,22 @@
       <c r="AK53" s="5"/>
       <c r="AL53" s="5"/>
     </row>
-    <row r="54" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5">
-        <v>-0.17</v>
+        <v>-35.566000000000003</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5">
-        <v>6.91</v>
+        <v>-23.997</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -3791,22 +4381,22 @@
       <c r="AK54" s="5"/>
       <c r="AL54" s="5"/>
     </row>
-    <row r="55" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5">
-        <v>-10.92</v>
+        <v>-0.17</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5">
-        <v>-30.873000000000001</v>
+        <v>6.91</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -3827,22 +4417,22 @@
       <c r="AK55" s="5"/>
       <c r="AL55" s="5"/>
     </row>
-    <row r="56" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
-        <v>-225.57900000000001</v>
+        <v>-10.92</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5">
-        <v>-303.00099999999998</v>
+        <v>-30.873000000000001</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -3863,24 +4453,22 @@
       <c r="AK56" s="5"/>
       <c r="AL56" s="5"/>
     </row>
-    <row r="57" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5">
-        <f>SUM(G44:G56)</f>
-        <v>452.42800000000005</v>
+        <v>-225.57900000000001</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5">
-        <f>SUM(K44:K56)</f>
-        <v>439.71699999999987</v>
+        <v>-303.00099999999998</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -3901,19 +4489,107 @@
       <c r="AK57" s="5"/>
       <c r="AL57" s="5"/>
     </row>
-    <row r="60" spans="2:38" x14ac:dyDescent="0.15">
-      <c r="B60" s="4" t="s">
+    <row r="58" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
+        <f>SUM(G45:G57)</f>
+        <v>452.42800000000005</v>
+      </c>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
+        <f>SUM(K45:K57)</f>
+        <v>439.71699999999987</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5">
+        <v>425</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>451</v>
+      </c>
+      <c r="R58" s="5">
+        <v>996</v>
+      </c>
+      <c r="S58" s="5">
+        <v>372</v>
+      </c>
+      <c r="T58" s="4">
+        <v>571</v>
+      </c>
+      <c r="U58" s="4">
+        <v>406</v>
+      </c>
+      <c r="V58" s="4">
+        <v>1113</v>
+      </c>
+      <c r="W58" s="4">
+        <v>457</v>
+      </c>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5">
+        <v>2149</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>2461</v>
+      </c>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+    </row>
+    <row r="59" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="S59" s="5">
+        <f>SUM(P58:S58)</f>
+        <v>2244</v>
+      </c>
+      <c r="T59" s="5">
+        <f>SUM(Q58:T58)</f>
+        <v>2390</v>
+      </c>
+      <c r="U59" s="5">
+        <f>SUM(R58:U58)</f>
+        <v>2345</v>
+      </c>
+      <c r="V59" s="5">
+        <f>SUM(S58:V58)</f>
+        <v>2462</v>
+      </c>
+      <c r="W59" s="5">
+        <f>SUM(T58:W58)</f>
+        <v>2547</v>
+      </c>
+      <c r="AG59" s="10">
+        <f>+AG58/AF58-1</f>
+        <v>0.14518380642159134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N60" s="10">
-        <f>N36/J36-1</f>
+      <c r="N61" s="10">
+        <f>N37/J37-1</f>
         <v>0.14185572258113166</v>
       </c>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
